--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -208,7 +208,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,6 +242,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -322,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,7 +342,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,10 +351,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,7 +420,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -458,9 +485,11 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2295918367347"/>
     <col collapsed="false" hidden="true" max="2" min="2" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="3" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="3" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="3" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="true" max="15" min="13" style="1" width="0"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.50510204081633"/>
@@ -508,20 +537,20 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -530,29 +559,27 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="3" t="n">
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="n">
         <f aca="false">(E3+4*F3+G3)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="7" t="n">
         <f aca="false">(G3-E3)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="7" t="n">
         <f aca="false">J3*J3</f>
         <v>0.0277777777777778</v>
       </c>
@@ -561,20 +588,21 @@
       <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
+      <c r="B4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="0"/>
@@ -582,7 +610,7 @@
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="M4" s="0"/>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O4" s="0"/>
@@ -591,29 +619,27 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="n">
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="7" t="n">
         <f aca="false">(E5+4*F5+G5)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="7" t="n">
         <f aca="false">(G5-E5)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="7" t="n">
         <f aca="false">J5*J5</f>
         <v>0.444444444444444</v>
       </c>
@@ -622,20 +648,21 @@
       <c r="O5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="n">
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="0"/>
@@ -643,27 +670,27 @@
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
       <c r="M6" s="0"/>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -672,29 +699,27 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="3" t="n">
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <f aca="false">(E8+4*F8+G8)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="7" t="n">
         <f aca="false">(G8-E8)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="7" t="n">
         <f aca="false">J8*J8</f>
         <v>0.0277777777777778</v>
       </c>
@@ -703,20 +728,21 @@
       <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
+      <c r="B9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="0"/>
@@ -725,7 +751,7 @@
       <c r="K9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,29 +759,27 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="7" t="n">
         <f aca="false">(E10+4*F10+G10)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="7" t="n">
         <f aca="false">(G10-E10)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">J10*J10</f>
         <v>0.25</v>
       </c>
@@ -764,20 +788,21 @@
       <c r="O10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="B11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H11" s="0"/>
@@ -786,26 +811,26 @@
       <c r="K11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
+      <c r="B12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
@@ -814,29 +839,27 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="n">
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="7" t="n">
         <f aca="false">(E13+4*F13+G13)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="7" t="n">
         <f aca="false">(G13-E13)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="7" t="n">
         <f aca="false">J13*J13</f>
         <v>0.25</v>
       </c>
@@ -845,20 +868,21 @@
       <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3" t="n">
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>4</v>
       </c>
       <c r="H14" s="0"/>
@@ -866,7 +890,7 @@
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="M14" s="0"/>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="0"/>
@@ -875,29 +899,27 @@
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="n">
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="7" t="n">
         <f aca="false">(E15+4*F15+G15)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="7" t="n">
         <f aca="false">(G15-E15)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="7" t="n">
         <f aca="false">J15*J15</f>
         <v>0.25</v>
       </c>
@@ -906,20 +928,21 @@
       <c r="O15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="n">
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="n">
         <v>4</v>
       </c>
       <c r="H16" s="0"/>
@@ -927,7 +950,7 @@
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="M16" s="0"/>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O16" s="0"/>
@@ -936,29 +959,27 @@
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="n">
+      <c r="B17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="7" t="n">
         <f aca="false">(E17+4*F17+G17)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="7" t="n">
         <f aca="false">(G17-E17)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="7" t="n">
         <f aca="false">J17*J17</f>
         <v>0.25</v>
       </c>
@@ -967,20 +988,21 @@
       <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="n">
+      <c r="B18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H18" s="0"/>
@@ -988,7 +1010,7 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="M18" s="0"/>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O18" s="0"/>
@@ -997,29 +1019,27 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="3" t="n">
+      <c r="B19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7" t="n">
         <f aca="false">(E19+4*F19+G19)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="7" t="n">
         <f aca="false">(G19-E19)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="7" t="n">
         <f aca="false">J19*J19</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1028,20 +1048,21 @@
       <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="n">
+      <c r="B20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H20" s="0"/>
@@ -1049,7 +1070,7 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="M20" s="0"/>
-      <c r="N20" s="1" t="n">
+      <c r="N20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="0"/>
@@ -1058,20 +1079,20 @@
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
@@ -1080,29 +1101,27 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="n">
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="H22" s="0"/>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="7" t="n">
         <f aca="false">(E22+4*F22+G22)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J22" s="3" t="n">
+      <c r="J22" s="7" t="n">
         <f aca="false">(G22-E22)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="7" t="n">
         <f aca="false">J22*J22</f>
         <v>1.36111111111111</v>
       </c>
@@ -1111,20 +1130,21 @@
       <c r="O22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="n">
+      <c r="B23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="0"/>
@@ -1132,26 +1152,27 @@
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="M23" s="0"/>
-      <c r="N23" s="1" t="n">
+      <c r="N23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="n">
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H24" s="0"/>
@@ -1160,7 +1181,7 @@
       <c r="K24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
-      <c r="O24" s="1" t="n">
+      <c r="O24" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,29 +1189,27 @@
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="0"/>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="7" t="n">
         <f aca="false">(E25+4*F25+G25)/6</f>
         <v>3</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="7" t="n">
         <f aca="false">(G25-E25)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K25" s="7" t="n">
         <f aca="false">J25*J25</f>
         <v>0.444444444444444</v>
       </c>
@@ -1199,20 +1218,21 @@
       <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3" t="n">
+      <c r="B26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="0"/>
@@ -1220,26 +1240,27 @@
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="M26" s="0"/>
-      <c r="N26" s="1" t="n">
+      <c r="N26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="n">
+      <c r="B27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H27" s="0"/>
@@ -1248,28 +1269,28 @@
       <c r="K27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
-      <c r="O27" s="1" t="n">
+      <c r="O27" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
@@ -1278,29 +1299,27 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3" t="n">
+      <c r="B29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="0"/>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="7" t="n">
         <f aca="false">(E29+4*F29+G29)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="7" t="n">
         <f aca="false">(G29-E29)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="K29" s="7" t="n">
         <f aca="false">J29*J29</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1309,20 +1328,21 @@
       <c r="O29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="n">
+      <c r="B30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H30" s="0"/>
@@ -1330,7 +1350,7 @@
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
       <c r="M30" s="0"/>
-      <c r="N30" s="1" t="n">
+      <c r="N30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="0"/>
@@ -1339,29 +1359,27 @@
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="3" t="n">
+      <c r="B31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7" t="n">
         <f aca="false">(E31+4*F31+G31)/6</f>
         <v>1.83333333333333</v>
       </c>
-      <c r="J31" s="3" t="n">
+      <c r="J31" s="7" t="n">
         <f aca="false">(G31-E31)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="7" t="n">
         <f aca="false">J31*J31</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1370,20 +1388,21 @@
       <c r="O31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3" t="n">
+      <c r="B32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H32" s="0"/>
@@ -1391,7 +1410,7 @@
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="M32" s="0"/>
-      <c r="N32" s="1" t="n">
+      <c r="N32" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O32" s="0"/>
@@ -1400,29 +1419,27 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3" t="n">
+      <c r="B33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="H33" s="0"/>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="7" t="n">
         <f aca="false">(E33+4*F33+G33)/6</f>
         <v>5.5</v>
       </c>
-      <c r="J33" s="3" t="n">
+      <c r="J33" s="7" t="n">
         <f aca="false">(G33-E33)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K33" s="3" t="n">
+      <c r="K33" s="7" t="n">
         <f aca="false">J33*J33</f>
         <v>1.36111111111111</v>
       </c>
@@ -1431,20 +1448,21 @@
       <c r="O33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3" t="n">
+      <c r="B34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="9" t="n">
         <v>10</v>
       </c>
       <c r="H34" s="0"/>
@@ -1452,7 +1470,7 @@
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
       <c r="M34" s="0"/>
-      <c r="N34" s="1" t="n">
+      <c r="N34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O34" s="0"/>
@@ -1461,20 +1479,20 @@
       <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
@@ -1483,31 +1501,30 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" s="0"/>
-      <c r="I36" s="3" t="n">
+      <c r="E36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="7" t="n">
         <f aca="false">(E36+4*F36+G36)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="J36" s="7" t="n">
         <f aca="false">(G36-E36)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="K36" s="7" t="n">
         <f aca="false">J36*J36</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1516,20 +1533,21 @@
       <c r="O36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3" t="n">
+      <c r="B37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H37" s="0"/>
@@ -1537,27 +1555,27 @@
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
       <c r="M37" s="0"/>
-      <c r="N37" s="1" t="n">
+      <c r="N37" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
+      <c r="B38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
@@ -1566,29 +1584,27 @@
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="3" t="n">
+      <c r="B39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H39" s="0"/>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="7" t="n">
         <f aca="false">(E39+4*F39+G39)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="J39" s="7" t="n">
         <f aca="false">(G39-E39)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" s="7" t="n">
         <f aca="false">J39*J39</f>
         <v>0.444444444444444</v>
       </c>
@@ -1597,20 +1613,21 @@
       <c r="O39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3" t="n">
+      <c r="B40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H40" s="0"/>
@@ -1619,7 +1636,7 @@
       <c r="K40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
-      <c r="O40" s="1" t="n">
+      <c r="O40" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1627,29 +1644,27 @@
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3" t="n">
+      <c r="B41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H41" s="0"/>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="7" t="n">
         <f aca="false">(E41+4*F41+G41)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J41" s="3" t="n">
+      <c r="J41" s="7" t="n">
         <f aca="false">(G41-E41)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="K41" s="7" t="n">
         <f aca="false">J41*J41</f>
         <v>0.25</v>
       </c>
@@ -1658,20 +1673,21 @@
       <c r="O41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3" t="n">
+      <c r="B42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H42" s="0"/>
@@ -1680,7 +1696,7 @@
       <c r="K42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
-      <c r="O42" s="1" t="n">
+      <c r="O42" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,29 +1704,27 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3" t="n">
+      <c r="B43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="0"/>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="7" t="n">
         <f aca="false">(E43+4*F43+G43)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="J43" s="7" t="n">
         <f aca="false">(G43-E43)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="K43" s="7" t="n">
         <f aca="false">J43*J43</f>
         <v>0.25</v>
       </c>
@@ -1719,20 +1733,21 @@
       <c r="O43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3" t="n">
+      <c r="B44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H44" s="0"/>
@@ -1740,7 +1755,7 @@
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
       <c r="M44" s="0"/>
-      <c r="N44" s="1" t="n">
+      <c r="N44" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O44" s="0"/>
@@ -1749,29 +1764,27 @@
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" s="0"/>
-      <c r="I45" s="3" t="n">
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="7" t="n">
         <f aca="false">(E45+4*F45+G45)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J45" s="3" t="n">
+      <c r="J45" s="7" t="n">
         <f aca="false">(G45-E45)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="K45" s="7" t="n">
         <f aca="false">J45*J45</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1780,20 +1793,21 @@
       <c r="O45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3" t="n">
+      <c r="B46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H46" s="0"/>
@@ -1801,7 +1815,7 @@
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
       <c r="M46" s="0"/>
-      <c r="N46" s="1" t="n">
+      <c r="N46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="0"/>
@@ -1810,29 +1824,27 @@
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="0"/>
-      <c r="I47" s="3" t="n">
+      <c r="B47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="7" t="n">
         <f aca="false">(E47+4*F47+G47)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J47" s="3" t="n">
+      <c r="J47" s="7" t="n">
         <f aca="false">(G47-E47)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K47" s="3" t="n">
+      <c r="K47" s="7" t="n">
         <f aca="false">J47*J47</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1841,27 +1853,28 @@
       <c r="O47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="n">
+      <c r="B48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="n">
         <v>2</v>
       </c>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
-      <c r="M48" s="1" t="n">
+      <c r="M48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="N48" s="0"/>
@@ -1871,20 +1884,20 @@
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
     </row>
@@ -1892,29 +1905,27 @@
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3" t="n">
+      <c r="B50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H50" s="0"/>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="7" t="n">
         <f aca="false">(E50+4*F50+G50)/6</f>
         <v>5</v>
       </c>
-      <c r="J50" s="3" t="n">
+      <c r="J50" s="7" t="n">
         <f aca="false">(G50-E50)/6</f>
         <v>1</v>
       </c>
-      <c r="K50" s="3" t="n">
+      <c r="K50" s="7" t="n">
         <f aca="false">J50*J50</f>
         <v>1</v>
       </c>
@@ -1922,27 +1933,28 @@
       <c r="O50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3" t="n">
+      <c r="B51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="9" t="n">
         <v>8</v>
       </c>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
-      <c r="N51" s="1" t="n">
+      <c r="N51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="0"/>
@@ -1951,29 +1963,27 @@
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="n">
+      <c r="B52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G52" s="3" t="n">
+      <c r="G52" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="H52" s="0"/>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="7" t="n">
         <f aca="false">(E52+4*F52+G52)/6</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="J52" s="3" t="n">
+      <c r="J52" s="7" t="n">
         <f aca="false">(G52-E52)/6</f>
         <v>2.5</v>
       </c>
-      <c r="K52" s="3" t="n">
+      <c r="K52" s="7" t="n">
         <f aca="false">J52*J52</f>
         <v>6.25</v>
       </c>
@@ -1981,20 +1991,21 @@
       <c r="O52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="n">
+      <c r="B53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="3" t="n">
+      <c r="G53" s="9" t="n">
         <v>15</v>
       </c>
       <c r="H53" s="0"/>
@@ -2002,7 +2013,7 @@
       <c r="J53" s="0"/>
       <c r="K53" s="0"/>
       <c r="N53" s="0"/>
-      <c r="O53" s="1" t="n">
+      <c r="O53" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,56 +2021,55 @@
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3" t="n">
+      <c r="B54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="3" t="n">
+      <c r="G54" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H54" s="0"/>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="7" t="n">
         <f aca="false">(E54+4*F54+G54)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J54" s="3" t="n">
+      <c r="J54" s="7" t="n">
         <f aca="false">(G54-E54)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K54" s="3" t="n">
+      <c r="K54" s="7" t="n">
         <f aca="false">J54*J54</f>
         <v>0.25</v>
       </c>
       <c r="N54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3" t="n">
+      <c r="B55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="3" t="n">
+      <c r="G55" s="9" t="n">
         <v>5</v>
       </c>
       <c r="H55" s="0"/>
       <c r="I55" s="0"/>
       <c r="J55" s="0"/>
       <c r="K55" s="0"/>
-      <c r="N55" s="1" t="n">
+      <c r="N55" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,94 +2087,94 @@
       <c r="K56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8" t="n">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13" t="n">
         <f aca="false">SUMPRODUCT(E2:E55,B2:B55)</f>
         <v>27</v>
       </c>
-      <c r="F57" s="8" t="n">
+      <c r="F57" s="13" t="n">
         <f aca="false">SUMPRODUCT(F2:F55,B2:B55)</f>
         <v>54</v>
       </c>
-      <c r="G57" s="8" t="n">
+      <c r="G57" s="13" t="n">
         <f aca="false">SUMPRODUCT(G2:G55,B2:B55)</f>
         <v>103</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8" t="n">
+      <c r="H57" s="12"/>
+      <c r="I57" s="13" t="n">
         <f aca="false">SUMPRODUCT(I2:I55,B2:B55)</f>
         <v>57.6666666666667</v>
       </c>
-      <c r="J57" s="8" t="n">
+      <c r="J57" s="13" t="n">
         <f aca="false">SUMPRODUCT(J2:J55,B2:B55)</f>
         <v>12.6666666666667</v>
       </c>
-      <c r="K57" s="8" t="n">
+      <c r="K57" s="13" t="n">
         <f aca="false">SUMPRODUCT(K2:K55,B2:B55)</f>
         <v>13.2777777777778</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8" t="n">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13" t="n">
         <f aca="false">SUMPRODUCT(E2:E55,M2:M55)</f>
         <v>1</v>
       </c>
-      <c r="F58" s="8" t="n">
+      <c r="F58" s="13" t="n">
         <f aca="false">SUMPRODUCT(F2:F55,M2:M55)</f>
         <v>1</v>
       </c>
-      <c r="G58" s="8" t="n">
+      <c r="G58" s="13" t="n">
         <f aca="false">SUMPRODUCT(G2:G55,M2:M55)</f>
         <v>2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8" t="n">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13" t="n">
         <f aca="false">SUMPRODUCT(E2:E55,N2:N55)</f>
         <v>20</v>
       </c>
-      <c r="F59" s="8" t="n">
+      <c r="F59" s="13" t="n">
         <f aca="false">SUMPRODUCT(F2:F55,N2:N55)</f>
         <v>35</v>
       </c>
-      <c r="G59" s="8" t="n">
+      <c r="G59" s="13" t="n">
         <f aca="false">SUMPRODUCT(G2:G55,N2:N55)</f>
         <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8" t="n">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13" t="n">
         <f aca="false">SUMPRODUCT(E2:E55,O2:O55)</f>
         <v>6</v>
       </c>
-      <c r="F60" s="8" t="n">
+      <c r="F60" s="13" t="n">
         <f aca="false">SUMPRODUCT(F2:F55,O2:O55)</f>
         <v>18</v>
       </c>
-      <c r="G60" s="8" t="n">
+      <c r="G60" s="13" t="n">
         <f aca="false">SUMPRODUCT(G2:G55,O2:O55)</f>
         <v>40</v>
       </c>
@@ -2176,50 +2186,50 @@
       <c r="D61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="0"/>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="7" t="n">
         <f aca="false">SQRT(K57)</f>
         <v>3.64386851817924</v>
       </c>
       <c r="D62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="0"/>
-      <c r="C63" s="3" t="n">
+      <c r="C63" s="7" t="n">
         <v>1.5</v>
       </c>
       <c r="D63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8" t="n">
+      <c r="B64" s="12"/>
+      <c r="C64" s="13" t="n">
         <f aca="false">I57-2*C62</f>
         <v>50.3789296303082</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="15" t="n">
         <f aca="false">C64*C63</f>
         <v>75.5683944454623</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8" t="n">
+      <c r="B65" s="12"/>
+      <c r="C65" s="13" t="n">
         <f aca="false">I57+2*C62</f>
         <v>64.9544037030252</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="15" t="n">
         <f aca="false">C65*C63</f>
         <v>97.4316055545377</v>
       </c>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">...</t>
   </si>
   <si>
-    <t xml:space="preserve">this is a temporary branch for testing purposes</t>
+    <t xml:space="preserve">this is a temporary branch for theme testing</t>
   </si>
   <si>
     <t xml:space="preserve">  ...</t>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$76</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
@@ -398,7 +401,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -423,19 +426,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,23 +442,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -600,53 +583,53 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -661,84 +644,76 @@
       <c r="P2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -746,10 +721,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -764,10 +736,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -782,10 +751,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -800,29 +766,29 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <f aca="false">(E10+4*F10+G10)/6</f>
         <v>0</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="12" t="n">
         <f aca="false">(G10-E10)/6</f>
         <v>0</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="12" t="n">
         <f aca="false">J10*J10</f>
         <v>0</v>
       </c>
@@ -832,21 +798,21 @@
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19" t="n">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="0"/>
@@ -862,29 +828,29 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="n">
         <f aca="false">(E12+4*F12+G12)/6</f>
         <v>0</v>
       </c>
-      <c r="J12" s="17" t="n">
+      <c r="J12" s="12" t="n">
         <f aca="false">(G12-E12)/6</f>
         <v>0</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="12" t="n">
         <f aca="false">J12*J12</f>
         <v>0</v>
       </c>
@@ -894,21 +860,21 @@
       <c r="P12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19" t="n">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="0"/>
@@ -923,42 +889,38 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
@@ -966,10 +928,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -984,29 +943,29 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="n">
         <f aca="false">(E17+4*F17+G17)/6</f>
         <v>0</v>
       </c>
-      <c r="J17" s="17" t="n">
+      <c r="J17" s="12" t="n">
         <f aca="false">(G17-E17)/6</f>
         <v>0</v>
       </c>
-      <c r="K17" s="17" t="n">
+      <c r="K17" s="12" t="n">
         <f aca="false">J17*J17</f>
         <v>0</v>
       </c>
@@ -1016,21 +975,21 @@
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19" t="n">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="0"/>
@@ -1045,42 +1004,38 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
@@ -1088,29 +1043,29 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12" t="n">
         <f aca="false">(E21+4*F21+G21)/6</f>
         <v>0</v>
       </c>
-      <c r="J21" s="17" t="n">
+      <c r="J21" s="12" t="n">
         <f aca="false">(G21-E21)/6</f>
         <v>0</v>
       </c>
-      <c r="K21" s="17" t="n">
+      <c r="K21" s="12" t="n">
         <f aca="false">J21*J21</f>
         <v>0</v>
       </c>
@@ -1120,21 +1075,21 @@
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19" t="n">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="0"/>
@@ -1150,14 +1105,12 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1171,50 +1124,48 @@
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="12" t="n">
         <f aca="false">(E25+4*F25+G25)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J25" s="17" t="n">
+      <c r="J25" s="12" t="n">
         <f aca="false">(G25-E25)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K25" s="17" t="n">
+      <c r="K25" s="12" t="n">
         <f aca="false">J25*J25</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1223,21 +1174,21 @@
       <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="19" t="n">
+      <c r="A26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="0"/>
@@ -1252,29 +1203,29 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="17" t="n">
+      <c r="G27" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I27" s="17" t="n">
+      <c r="I27" s="12" t="n">
         <f aca="false">(E27+4*F27+G27)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J27" s="17" t="n">
+      <c r="J27" s="12" t="n">
         <f aca="false">(G27-E27)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="17" t="n">
+      <c r="K27" s="12" t="n">
         <f aca="false">J27*J27</f>
         <v>0.25</v>
       </c>
@@ -1283,21 +1234,21 @@
       <c r="O27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="19" t="n">
+      <c r="A28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="19" t="n">
+      <c r="G28" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H28" s="0"/>
@@ -1311,50 +1262,48 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I30" s="17" t="n">
+      <c r="I30" s="12" t="n">
         <f aca="false">(E30+4*F30+G30)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J30" s="17" t="n">
+      <c r="J30" s="12" t="n">
         <f aca="false">(G30-E30)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K30" s="17" t="n">
+      <c r="K30" s="12" t="n">
         <f aca="false">J30*J30</f>
         <v>0.25</v>
       </c>
@@ -1363,21 +1312,21 @@
       <c r="O30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="19" t="n">
+      <c r="A31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14" t="n">
         <v>4</v>
       </c>
       <c r="H31" s="0"/>
@@ -1392,29 +1341,29 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I32" s="17" t="n">
+      <c r="I32" s="12" t="n">
         <f aca="false">(E32+4*F32+G32)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J32" s="17" t="n">
+      <c r="J32" s="12" t="n">
         <f aca="false">(G32-E32)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K32" s="17" t="n">
+      <c r="K32" s="12" t="n">
         <f aca="false">J32*J32</f>
         <v>0.25</v>
       </c>
@@ -1423,21 +1372,21 @@
       <c r="O32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="19" t="n">
+      <c r="A33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="14" t="n">
         <v>4</v>
       </c>
       <c r="H33" s="0"/>
@@ -1452,29 +1401,29 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I34" s="17" t="n">
+      <c r="I34" s="12" t="n">
         <f aca="false">(E34+4*F34+G34)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J34" s="17" t="n">
+      <c r="J34" s="12" t="n">
         <f aca="false">(G34-E34)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K34" s="17" t="n">
+      <c r="K34" s="12" t="n">
         <f aca="false">J34*J34</f>
         <v>0.25</v>
       </c>
@@ -1483,21 +1432,21 @@
       <c r="O34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19" t="n">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="14" t="n">
         <v>3</v>
       </c>
       <c r="H35" s="0"/>
@@ -1512,29 +1461,29 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="12" t="n">
         <f aca="false">(E36+4*F36+G36)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J36" s="17" t="n">
+      <c r="J36" s="12" t="n">
         <f aca="false">(G36-E36)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K36" s="17" t="n">
+      <c r="K36" s="12" t="n">
         <f aca="false">J36*J36</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1543,21 +1492,21 @@
       <c r="O36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="19" t="n">
+      <c r="A37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H37" s="0"/>
@@ -1572,29 +1521,29 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="12" t="n">
         <f aca="false">(E38+4*F38+G38)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J38" s="17" t="n">
+      <c r="J38" s="12" t="n">
         <f aca="false">(G38-E38)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K38" s="17" t="n">
+      <c r="K38" s="12" t="n">
         <f aca="false">J38*J38</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1603,21 +1552,21 @@
       <c r="O38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="19" t="n">
+      <c r="A39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="0"/>
@@ -1632,29 +1581,29 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I40" s="17" t="n">
+      <c r="I40" s="12" t="n">
         <f aca="false">(E40+4*F40+G40)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J40" s="17" t="n">
+      <c r="J40" s="12" t="n">
         <f aca="false">(G40-E40)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K40" s="17" t="n">
+      <c r="K40" s="12" t="n">
         <f aca="false">J40*J40</f>
         <v>0.444444444444444</v>
       </c>
@@ -1663,21 +1612,21 @@
       <c r="O40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="19" t="n">
+      <c r="A41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H41" s="0"/>
@@ -1692,14 +1641,12 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="7" t="s">
-        <v>41</v>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -1713,52 +1660,50 @@
       <c r="O42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I44" s="17" t="n">
+      <c r="I44" s="12" t="n">
         <f aca="false">(E44+4*F44+G44)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J44" s="17" t="n">
+      <c r="J44" s="12" t="n">
         <f aca="false">(G44-E44)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K44" s="17" t="n">
+      <c r="K44" s="12" t="n">
         <f aca="false">J44*J44</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1767,21 +1712,21 @@
       <c r="O44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="19" t="n">
+      <c r="A45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14" t="n">
         <v>3</v>
       </c>
       <c r="H45" s="0"/>
@@ -1796,29 +1741,29 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" s="17" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="12" t="n">
         <f aca="false">(E46+4*F46+G46)/6</f>
         <v>1.83333333333333</v>
       </c>
-      <c r="J46" s="17" t="n">
+      <c r="J46" s="12" t="n">
         <f aca="false">(G46-E46)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K46" s="17" t="n">
+      <c r="K46" s="12" t="n">
         <f aca="false">J46*J46</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1827,21 +1772,21 @@
       <c r="O46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" s="19" t="n">
+      <c r="A47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H47" s="0"/>
@@ -1856,29 +1801,29 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="17" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F48" s="17" t="n">
+      <c r="F48" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G48" s="17" t="n">
+      <c r="G48" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="I48" s="17" t="n">
+      <c r="I48" s="12" t="n">
         <f aca="false">(E48+4*F48+G48)/6</f>
         <v>5.5</v>
       </c>
-      <c r="J48" s="17" t="n">
+      <c r="J48" s="12" t="n">
         <f aca="false">(G48-E48)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K48" s="17" t="n">
+      <c r="K48" s="12" t="n">
         <f aca="false">J48*J48</f>
         <v>1.36111111111111</v>
       </c>
@@ -1887,21 +1832,21 @@
       <c r="O48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19" t="n">
+      <c r="A49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F49" s="19" t="n">
+      <c r="F49" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G49" s="19" t="n">
+      <c r="G49" s="14" t="n">
         <v>10</v>
       </c>
       <c r="H49" s="0"/>
@@ -1916,29 +1861,29 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G50" s="17" t="n">
+      <c r="G50" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="I50" s="17" t="n">
+      <c r="I50" s="12" t="n">
         <f aca="false">(E50+4*F50+G50)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J50" s="17" t="n">
+      <c r="J50" s="12" t="n">
         <f aca="false">(G50-E50)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K50" s="17" t="n">
+      <c r="K50" s="12" t="n">
         <f aca="false">J50*J50</f>
         <v>1.36111111111111</v>
       </c>
@@ -1947,21 +1892,21 @@
       <c r="O50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="19" t="n">
+      <c r="A51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H51" s="0"/>
@@ -1975,21 +1920,21 @@
       <c r="O51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="19" t="n">
+      <c r="A52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G52" s="19" t="n">
+      <c r="G52" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H52" s="0"/>
@@ -2004,29 +1949,29 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="17" t="n">
+      <c r="G53" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I53" s="17" t="n">
+      <c r="I53" s="12" t="n">
         <f aca="false">(E53+4*F53+G53)/6</f>
         <v>3</v>
       </c>
-      <c r="J53" s="17" t="n">
+      <c r="J53" s="12" t="n">
         <f aca="false">(G53-E53)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K53" s="17" t="n">
+      <c r="K53" s="12" t="n">
         <f aca="false">J53*J53</f>
         <v>0.444444444444444</v>
       </c>
@@ -2035,21 +1980,21 @@
       <c r="O53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" s="19" t="n">
+      <c r="A54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H54" s="0"/>
@@ -2063,21 +2008,21 @@
       <c r="O54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="19" t="n">
+      <c r="A55" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="14" t="n">
         <v>3</v>
       </c>
       <c r="H55" s="0"/>
@@ -2092,14 +2037,12 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="7" t="s">
-        <v>51</v>
+      <c r="D56" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2113,50 +2056,48 @@
       <c r="O56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="A57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
       <c r="O57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I58" s="17" t="n">
+      <c r="I58" s="12" t="n">
         <f aca="false">(E58+4*F58+G58)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J58" s="17" t="n">
+      <c r="J58" s="12" t="n">
         <f aca="false">(G58-E58)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K58" s="17" t="n">
+      <c r="K58" s="12" t="n">
         <f aca="false">J58*J58</f>
         <v>0.444444444444444</v>
       </c>
@@ -2165,21 +2106,21 @@
       <c r="O58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" s="19" t="n">
+      <c r="A59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H59" s="0"/>
@@ -2194,29 +2135,29 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F60" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G60" s="17" t="n">
+      <c r="G60" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I60" s="17" t="n">
+      <c r="I60" s="12" t="n">
         <f aca="false">(E60+4*F60+G60)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J60" s="17" t="n">
+      <c r="J60" s="12" t="n">
         <f aca="false">(G60-E60)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K60" s="17" t="n">
+      <c r="K60" s="12" t="n">
         <f aca="false">J60*J60</f>
         <v>0.25</v>
       </c>
@@ -2225,21 +2166,21 @@
       <c r="O60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" s="19" t="n">
+      <c r="A61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G61" s="19" t="n">
+      <c r="G61" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H61" s="0"/>
@@ -2254,32 +2195,32 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="E62" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="12" t="n">
         <f aca="false">(E62+4*F62+G62)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J62" s="17" t="n">
+      <c r="J62" s="12" t="n">
         <f aca="false">(G62-E62)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K62" s="17" t="n">
+      <c r="K62" s="12" t="n">
         <f aca="false">J62*J62</f>
         <v>0.0277777777777778</v>
       </c>
@@ -2288,21 +2229,21 @@
       <c r="O62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="19" t="n">
+      <c r="A63" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H63" s="0"/>
@@ -2317,29 +2258,29 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G64" s="17" t="n">
+      <c r="G64" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I64" s="17" t="n">
+      <c r="I64" s="12" t="n">
         <f aca="false">(E64+4*F64+G64)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J64" s="17" t="n">
+      <c r="J64" s="12" t="n">
         <f aca="false">(G64-E64)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K64" s="17" t="n">
+      <c r="K64" s="12" t="n">
         <f aca="false">J64*J64</f>
         <v>0.25</v>
       </c>
@@ -2348,21 +2289,21 @@
       <c r="O64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" s="19" t="n">
+      <c r="A65" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="G65" s="19" t="n">
+      <c r="G65" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H65" s="0"/>
@@ -2377,29 +2318,29 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" s="17" t="n">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="12" t="n">
         <f aca="false">(E66+4*F66+G66)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J66" s="17" t="n">
+      <c r="J66" s="12" t="n">
         <f aca="false">(G66-E66)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K66" s="17" t="n">
+      <c r="K66" s="12" t="n">
         <f aca="false">J66*J66</f>
         <v>0.0277777777777778</v>
       </c>
@@ -2408,21 +2349,21 @@
       <c r="O66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="19" t="n">
+      <c r="A67" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H67" s="0"/>
@@ -2437,29 +2378,29 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="12" t="n">
         <f aca="false">(E68+4*F68+G68)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J68" s="17" t="n">
+      <c r="J68" s="12" t="n">
         <f aca="false">(G68-E68)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K68" s="17" t="n">
+      <c r="K68" s="12" t="n">
         <f aca="false">J68*J68</f>
         <v>0.0277777777777778</v>
       </c>
@@ -2468,21 +2409,21 @@
       <c r="O68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="19" t="n">
+      <c r="A69" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="14" t="n">
         <v>2</v>
       </c>
       <c r="H69" s="0"/>
@@ -2497,14 +2438,12 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="7" t="s">
-        <v>62</v>
+      <c r="D70" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2518,29 +2457,29 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F71" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G71" s="17" t="n">
+      <c r="G71" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="I71" s="17" t="n">
+      <c r="I71" s="12" t="n">
         <f aca="false">(E71+4*F71+G71)/6</f>
         <v>5</v>
       </c>
-      <c r="J71" s="17" t="n">
+      <c r="J71" s="12" t="n">
         <f aca="false">(G71-E71)/6</f>
         <v>1</v>
       </c>
-      <c r="K71" s="17" t="n">
+      <c r="K71" s="12" t="n">
         <f aca="false">J71*J71</f>
         <v>1</v>
       </c>
@@ -2548,21 +2487,21 @@
       <c r="O71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F72" s="19" t="n">
+      <c r="A72" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G72" s="19" t="n">
+      <c r="G72" s="14" t="n">
         <v>8</v>
       </c>
       <c r="H72" s="0"/>
@@ -2576,29 +2515,29 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G73" s="17" t="n">
+      <c r="G73" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="I73" s="17" t="n">
+      <c r="I73" s="12" t="n">
         <f aca="false">(E73+4*F73+G73)/6</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="J73" s="17" t="n">
+      <c r="J73" s="12" t="n">
         <f aca="false">(G73-E73)/6</f>
         <v>2.5</v>
       </c>
-      <c r="K73" s="17" t="n">
+      <c r="K73" s="12" t="n">
         <f aca="false">J73*J73</f>
         <v>6.25</v>
       </c>
@@ -2606,21 +2545,21 @@
       <c r="O73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="19" t="n">
+      <c r="A74" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G74" s="19" t="n">
+      <c r="G74" s="14" t="n">
         <v>15</v>
       </c>
       <c r="H74" s="0"/>
@@ -2634,50 +2573,50 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F75" s="17" t="n">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G75" s="17" t="n">
+      <c r="G75" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="I75" s="17" t="n">
+      <c r="I75" s="12" t="n">
         <f aca="false">(E75+4*F75+G75)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J75" s="17" t="n">
+      <c r="J75" s="12" t="n">
         <f aca="false">(G75-E75)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K75" s="17" t="n">
+      <c r="K75" s="12" t="n">
         <f aca="false">J75*J75</f>
         <v>0.25</v>
       </c>
       <c r="N75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F76" s="19" t="n">
+      <c r="A76" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G76" s="19" t="n">
+      <c r="G76" s="14" t="n">
         <v>5</v>
       </c>
       <c r="H76" s="0"/>
@@ -2702,115 +2641,115 @@
       <c r="K77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,B2:B76)</f>
+      <c r="A78" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,B2:B77)</f>
         <v>27</v>
       </c>
-      <c r="F78" s="21" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,B2:B76)</f>
+      <c r="F78" s="16" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,B2:B77)</f>
         <v>54</v>
       </c>
-      <c r="G78" s="21" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,B2:B76)</f>
+      <c r="G78" s="16" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,B2:B77)</f>
         <v>103</v>
       </c>
-      <c r="H78" s="20"/>
-      <c r="I78" s="21" t="n">
-        <f aca="false">SUMPRODUCT(I2:I76,B2:B76)</f>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16" t="n">
+        <f aca="false">SUMPRODUCT(I2:I77,B2:B77)</f>
         <v>57.6666666666667</v>
       </c>
-      <c r="J78" s="21" t="n">
-        <f aca="false">SUMPRODUCT(J2:J76,B2:B76)</f>
+      <c r="J78" s="16" t="n">
+        <f aca="false">SUMPRODUCT(J2:J77,B2:B77)</f>
         <v>12.6666666666667</v>
       </c>
-      <c r="K78" s="21" t="n">
-        <f aca="false">SUMPRODUCT(K2:K76,B2:B76)</f>
+      <c r="K78" s="16" t="n">
+        <f aca="false">SUMPRODUCT(K2:K77,B2:B77)</f>
         <v>13.2777777777778</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,M2:M76)</f>
-        <v>1</v>
-      </c>
-      <c r="F79" s="21" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,M2:M76)</f>
-        <v>1</v>
-      </c>
-      <c r="G79" s="21" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,M2:M76)</f>
+      <c r="A79" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,M2:M77)</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="16" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,M2:M77)</f>
+        <v>1</v>
+      </c>
+      <c r="G79" s="16" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,M2:M77)</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,N2:N76)</f>
+      <c r="A80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,N2:N77)</f>
         <v>20</v>
       </c>
-      <c r="F80" s="21" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,N2:N76)</f>
+      <c r="F80" s="16" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,N2:N77)</f>
         <v>35</v>
       </c>
-      <c r="G80" s="21" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,N2:N76)</f>
+      <c r="G80" s="16" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,N2:N77)</f>
         <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,O2:O76)</f>
+      <c r="A81" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,O2:O77)</f>
         <v>6</v>
       </c>
-      <c r="F81" s="21" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,O2:O76)</f>
+      <c r="F81" s="16" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,O2:O77)</f>
         <v>18</v>
       </c>
-      <c r="G81" s="21" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,O2:O76)</f>
+      <c r="G81" s="16" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,O2:O77)</f>
         <v>40</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,P2:P76)</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="21" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,P2:P76)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="21" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,P2:P76)</f>
+      <c r="A82" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,P2:P77)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="16" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,P2:P77)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="16" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,P2:P77)</f>
         <v>0</v>
       </c>
     </row>
@@ -2821,56 +2760,56 @@
       <c r="D83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22" t="s">
-        <v>70</v>
+      <c r="A84" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="B84" s="0"/>
-      <c r="C84" s="17" t="n">
+      <c r="C84" s="12" t="n">
         <f aca="false">SQRT(K78)</f>
         <v>3.64386851817924</v>
       </c>
       <c r="D84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
-        <v>71</v>
+      <c r="A85" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B85" s="0"/>
-      <c r="C85" s="17" t="n">
+      <c r="C85" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="D85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="n">
+      <c r="A86" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="16" t="n">
         <f aca="false">I78-2*C84</f>
         <v>50.3789296303082</v>
       </c>
-      <c r="D86" s="23" t="n">
+      <c r="D86" s="18" t="n">
         <f aca="false">C86*C85</f>
         <v>75.5683944454623</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="n">
+      <c r="A87" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16" t="n">
         <f aca="false">I78+2*C84</f>
         <v>64.9544037030251</v>
       </c>
-      <c r="D87" s="23" t="n">
+      <c r="D87" s="18" t="n">
         <f aca="false">C87*C85</f>
         <v>97.4316055545377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K76"/>
+  <autoFilter ref="A1:K77"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Estimates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Estimates!$A$1:$K$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Estimates!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">Min (P=95%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max (P=95%)</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="13" t="n">

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Filter</t>
   </si>
   <si>
+    <t>MVP</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">  - coding</t>
+  </si>
+  <si>
+    <t>Total (MVP)</t>
   </si>
   <si>
     <t>Standard deviation</t>
@@ -627,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,47 +664,49 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s"/>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="s"/>
       <c r="F2" s="6" t="s"/>
@@ -710,7 +718,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
@@ -725,12 +733,14 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="3" t="s"/>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -757,7 +767,7 @@
     </row>
     <row hidden="1" r="5" spans="1:15">
       <c r="A5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="14" t="n">
         <v>0</v>
@@ -779,12 +789,14 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s"/>
       <c r="E6" s="12" t="n">
         <v>2</v>
@@ -811,7 +823,7 @@
     </row>
     <row hidden="1" r="7" spans="1:15">
       <c r="A7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="14" t="n">
         <v>0</v>
@@ -833,7 +845,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
@@ -848,12 +860,14 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s"/>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D9" s="3" t="s"/>
       <c r="E9" s="12" t="n">
         <v>1</v>
@@ -880,7 +894,7 @@
     </row>
     <row hidden="1" r="10" spans="1:15">
       <c r="A10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14" t="n">
         <v>0</v>
@@ -902,12 +916,14 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s"/>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" s="3" t="s"/>
       <c r="E11" s="12" t="n">
         <v>1</v>
@@ -934,7 +950,7 @@
     </row>
     <row hidden="1" r="12" spans="1:15">
       <c r="A12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>0</v>
@@ -956,12 +972,14 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s"/>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" s="3" t="s"/>
       <c r="E13" s="12" t="n">
         <v>0</v>
@@ -988,7 +1006,7 @@
     </row>
     <row hidden="1" r="14" spans="1:15">
       <c r="A14" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>0</v>
@@ -1010,12 +1028,14 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="3" t="s"/>
       <c r="E15" s="12" t="n">
         <v>1</v>
@@ -1042,7 +1062,7 @@
     </row>
     <row hidden="1" r="16" spans="1:15">
       <c r="A16" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>0</v>
@@ -1064,12 +1084,14 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s"/>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="3" t="s"/>
       <c r="E17" s="12" t="n">
         <v>1</v>
@@ -1096,7 +1118,7 @@
     </row>
     <row hidden="1" r="18" spans="1:15">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="14" t="n">
         <v>0</v>
@@ -1118,12 +1140,14 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" s="3" t="s"/>
       <c r="E19" s="12" t="n">
         <v>1</v>
@@ -1150,7 +1174,7 @@
     </row>
     <row hidden="1" r="20" spans="1:15">
       <c r="A20" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="14" t="n">
         <v>0</v>
@@ -1172,12 +1196,12 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="6" t="s"/>
       <c r="F21" s="6" t="s"/>
@@ -1189,12 +1213,12 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10" t="s"/>
       <c r="C22" s="9" t="s"/>
       <c r="D22" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="9" t="s"/>
       <c r="F22" s="9" t="s"/>
@@ -1206,12 +1230,14 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s"/>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="3" t="s"/>
       <c r="E23" s="12" t="n">
         <v>2</v>
@@ -1238,7 +1264,7 @@
     </row>
     <row hidden="1" r="24" spans="1:15">
       <c r="A24" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="14" t="n">
         <v>0</v>
@@ -1260,12 +1286,14 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" s="3" t="s"/>
       <c r="E25" s="12" t="n">
         <v>1</v>
@@ -1292,7 +1320,7 @@
     </row>
     <row hidden="1" r="26" spans="1:15">
       <c r="A26" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="14" t="n">
         <v>0</v>
@@ -1314,12 +1342,14 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" s="3" t="s"/>
       <c r="E27" s="12" t="n">
         <v>3</v>
@@ -1346,7 +1376,7 @@
     </row>
     <row hidden="1" r="28" spans="1:15">
       <c r="A28" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="14" t="n">
         <v>0</v>
@@ -1368,12 +1398,14 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D29" s="3" t="s"/>
       <c r="E29" s="12" t="n">
         <v>0</v>
@@ -1400,7 +1432,7 @@
     </row>
     <row hidden="1" r="30" spans="1:15">
       <c r="A30" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="14" t="n">
         <v>0</v>
@@ -1422,7 +1454,7 @@
     </row>
     <row hidden="1" r="31" spans="1:15">
       <c r="A31" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="14" t="n">
         <v>0</v>
@@ -1444,12 +1476,14 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s"/>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" s="3" t="s"/>
       <c r="E32" s="12" t="n">
         <v>1</v>
@@ -1476,7 +1510,7 @@
     </row>
     <row hidden="1" r="33" spans="1:15">
       <c r="A33" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="14" t="n">
         <v>0</v>
@@ -1498,7 +1532,7 @@
     </row>
     <row hidden="1" r="34" spans="1:15">
       <c r="A34" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="14" t="n">
         <v>0</v>
@@ -1520,12 +1554,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
       <c r="D35" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="6" t="s"/>
       <c r="F35" s="6" t="s"/>
@@ -1537,7 +1571,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="10" t="s"/>
       <c r="C36" s="9" t="s"/>
@@ -1552,12 +1586,14 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s"/>
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D37" s="3" t="s"/>
       <c r="E37" s="12" t="n">
         <v>1</v>
@@ -1584,7 +1620,7 @@
     </row>
     <row hidden="1" r="38" spans="1:15">
       <c r="A38" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="14" t="n">
         <v>0</v>
@@ -1606,12 +1642,14 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s"/>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D39" s="3" t="s"/>
       <c r="E39" s="12" t="n">
         <v>2</v>
@@ -1638,7 +1676,7 @@
     </row>
     <row hidden="1" r="40" spans="1:15">
       <c r="A40" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="14" t="n">
         <v>0</v>
@@ -1660,14 +1698,16 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s"/>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D41" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>1</v>
@@ -1694,7 +1734,7 @@
     </row>
     <row hidden="1" r="42" spans="1:15">
       <c r="A42" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" s="14" t="n">
         <v>0</v>
@@ -1716,12 +1756,14 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s"/>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D43" s="3" t="s"/>
       <c r="E43" s="12" t="n">
         <v>2</v>
@@ -1748,7 +1790,7 @@
     </row>
     <row hidden="1" r="44" spans="1:15">
       <c r="A44" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="14" t="n">
         <v>0</v>
@@ -1770,12 +1812,14 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s"/>
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D45" s="3" t="s"/>
       <c r="E45" s="12" t="n">
         <v>1</v>
@@ -1802,7 +1846,7 @@
     </row>
     <row hidden="1" r="46" spans="1:15">
       <c r="A46" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="14" t="n">
         <v>0</v>
@@ -1824,12 +1868,14 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s"/>
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D47" s="3" t="s"/>
       <c r="E47" s="12" t="n">
         <v>1</v>
@@ -1856,7 +1902,7 @@
     </row>
     <row hidden="1" r="48" spans="1:15">
       <c r="A48" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="14" t="n">
         <v>0</v>
@@ -1878,12 +1924,12 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
       <c r="D49" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E49" s="6" t="s"/>
       <c r="F49" s="6" t="s"/>
@@ -1895,12 +1941,14 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s"/>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D50" s="3" t="s"/>
       <c r="E50" s="12" t="n">
         <v>2</v>
@@ -1927,7 +1975,7 @@
     </row>
     <row hidden="1" r="51" spans="1:15">
       <c r="A51" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" s="14" t="n">
         <v>0</v>
@@ -1949,12 +1997,14 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s"/>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D52" s="3" t="s"/>
       <c r="E52" s="12" t="n">
         <v>0</v>
@@ -1981,7 +2031,7 @@
     </row>
     <row hidden="1" r="53" spans="1:15">
       <c r="A53" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="14" t="n">
         <v>0</v>
@@ -2003,12 +2053,14 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="s"/>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D54" s="3" t="s"/>
       <c r="E54" s="12" t="n">
         <v>2</v>
@@ -2035,7 +2087,7 @@
     </row>
     <row hidden="1" r="55" spans="1:15">
       <c r="A55" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55" s="14" t="n">
         <v>0</v>
@@ -2057,7 +2109,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="16" t="s"/>
       <c r="C57" s="16" t="s"/>
@@ -2090,7 +2142,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="16" t="s"/>
       <c r="C58" s="16" t="s"/>
@@ -2110,7 +2162,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="16" t="s"/>
       <c r="C59" s="16" t="s"/>
@@ -2130,7 +2182,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="16" t="s"/>
       <c r="C60" s="16" t="s"/>
@@ -2149,47 +2201,80 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="12">
-        <f>SQRT(K57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="18" t="s">
+      <c r="A62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="12" t="n">
+      <c r="B62" s="16" t="s"/>
+      <c r="C62" s="16" t="s"/>
+      <c r="D62" s="16" t="s"/>
+      <c r="E62" s="17">
+        <f>SUMPRODUCT(E2:E56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="F62" s="17">
+        <f>SUMPRODUCT(F2:F56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="G62" s="17">
+        <f>SUMPRODUCT(G2:G56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="H62" s="16" t="s"/>
+      <c r="I62" s="17">
+        <f>SUMPRODUCT(I2:I56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="J62" s="17">
+        <f>SUMPRODUCT(J2:J56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="K62" s="17">
+        <f>SUMPRODUCT(K2:K56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="12">
+        <f>SQRT(K62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="12" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="16" t="s"/>
-      <c r="C64" s="17">
-        <f>I57-2*C62</f>
-        <v/>
-      </c>
-      <c r="D64" s="19">
-        <f>C64*C63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="16" t="s"/>
-      <c r="C65" s="17">
-        <f>I57+2*C62</f>
-        <v/>
-      </c>
-      <c r="D65" s="19">
-        <f>C65*C63</f>
+    <row r="66" spans="1:15">
+      <c r="A66" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="16" t="s"/>
+      <c r="C66" s="17">
+        <f>I62-2*C64</f>
+        <v/>
+      </c>
+      <c r="D66" s="19">
+        <f>C66*C65</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="16" t="s"/>
+      <c r="C67" s="17">
+        <f>I62+2*C64</f>
+        <v/>
+      </c>
+      <c r="D67" s="19">
+        <f>C67*C65</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - coding</t>
-  </si>
-  <si>
-    <t>Total (MVP)</t>
   </si>
   <si>
     <t>Standard deviation</t>
@@ -633,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,49 +658,47 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="5" t="s"/>
       <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="5" t="s"/>
       <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
       <c r="D2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s"/>
       <c r="F2" s="6" t="s"/>
@@ -718,7 +710,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
@@ -733,14 +725,12 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" s="3" t="s"/>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -767,7 +757,7 @@
     </row>
     <row hidden="1" r="5" spans="1:15">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="14" t="n">
         <v>0</v>
@@ -789,14 +779,12 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" s="3" t="s"/>
       <c r="E6" s="12" t="n">
         <v>2</v>
@@ -823,7 +811,7 @@
     </row>
     <row hidden="1" r="7" spans="1:15">
       <c r="A7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="14" t="n">
         <v>0</v>
@@ -845,7 +833,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
@@ -860,14 +848,12 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C9" s="1" t="s"/>
       <c r="D9" s="3" t="s"/>
       <c r="E9" s="12" t="n">
         <v>1</v>
@@ -894,7 +880,7 @@
     </row>
     <row hidden="1" r="10" spans="1:15">
       <c r="A10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="n">
         <v>0</v>
@@ -916,14 +902,12 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1" t="s"/>
       <c r="D11" s="3" t="s"/>
       <c r="E11" s="12" t="n">
         <v>1</v>
@@ -950,7 +934,7 @@
     </row>
     <row hidden="1" r="12" spans="1:15">
       <c r="A12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>0</v>
@@ -972,14 +956,12 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C13" s="1" t="s"/>
       <c r="D13" s="3" t="s"/>
       <c r="E13" s="12" t="n">
         <v>0</v>
@@ -1006,7 +988,7 @@
     </row>
     <row hidden="1" r="14" spans="1:15">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>0</v>
@@ -1028,14 +1010,12 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C15" s="1" t="s"/>
       <c r="D15" s="3" t="s"/>
       <c r="E15" s="12" t="n">
         <v>1</v>
@@ -1062,7 +1042,7 @@
     </row>
     <row hidden="1" r="16" spans="1:15">
       <c r="A16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>0</v>
@@ -1084,14 +1064,12 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C17" s="1" t="s"/>
       <c r="D17" s="3" t="s"/>
       <c r="E17" s="12" t="n">
         <v>1</v>
@@ -1118,7 +1096,7 @@
     </row>
     <row hidden="1" r="18" spans="1:15">
       <c r="A18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="14" t="n">
         <v>0</v>
@@ -1140,14 +1118,12 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" s="1" t="s"/>
       <c r="D19" s="3" t="s"/>
       <c r="E19" s="12" t="n">
         <v>1</v>
@@ -1174,7 +1150,7 @@
     </row>
     <row hidden="1" r="20" spans="1:15">
       <c r="A20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="14" t="n">
         <v>0</v>
@@ -1196,12 +1172,12 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6" t="s"/>
       <c r="F21" s="6" t="s"/>
@@ -1213,12 +1189,12 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s"/>
       <c r="C22" s="9" t="s"/>
       <c r="D22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9" t="s"/>
       <c r="F22" s="9" t="s"/>
@@ -1230,14 +1206,12 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1" t="s"/>
       <c r="D23" s="3" t="s"/>
       <c r="E23" s="12" t="n">
         <v>2</v>
@@ -1264,7 +1238,7 @@
     </row>
     <row hidden="1" r="24" spans="1:15">
       <c r="A24" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="14" t="n">
         <v>0</v>
@@ -1286,14 +1260,12 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C25" s="1" t="s"/>
       <c r="D25" s="3" t="s"/>
       <c r="E25" s="12" t="n">
         <v>1</v>
@@ -1320,7 +1292,7 @@
     </row>
     <row hidden="1" r="26" spans="1:15">
       <c r="A26" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="14" t="n">
         <v>0</v>
@@ -1342,14 +1314,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C27" s="1" t="s"/>
       <c r="D27" s="3" t="s"/>
       <c r="E27" s="12" t="n">
         <v>3</v>
@@ -1376,7 +1346,7 @@
     </row>
     <row hidden="1" r="28" spans="1:15">
       <c r="A28" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="14" t="n">
         <v>0</v>
@@ -1398,14 +1368,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C29" s="1" t="s"/>
       <c r="D29" s="3" t="s"/>
       <c r="E29" s="12" t="n">
         <v>0</v>
@@ -1432,7 +1400,7 @@
     </row>
     <row hidden="1" r="30" spans="1:15">
       <c r="A30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="14" t="n">
         <v>0</v>
@@ -1454,7 +1422,7 @@
     </row>
     <row hidden="1" r="31" spans="1:15">
       <c r="A31" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="14" t="n">
         <v>0</v>
@@ -1476,14 +1444,12 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C32" s="1" t="s"/>
       <c r="D32" s="3" t="s"/>
       <c r="E32" s="12" t="n">
         <v>1</v>
@@ -1510,7 +1476,7 @@
     </row>
     <row hidden="1" r="33" spans="1:15">
       <c r="A33" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="14" t="n">
         <v>0</v>
@@ -1532,7 +1498,7 @@
     </row>
     <row hidden="1" r="34" spans="1:15">
       <c r="A34" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="14" t="n">
         <v>0</v>
@@ -1554,12 +1520,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
       <c r="D35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="6" t="s"/>
       <c r="F35" s="6" t="s"/>
@@ -1571,7 +1537,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="10" t="s"/>
       <c r="C36" s="9" t="s"/>
@@ -1586,14 +1552,12 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C37" s="1" t="s"/>
       <c r="D37" s="3" t="s"/>
       <c r="E37" s="12" t="n">
         <v>1</v>
@@ -1620,7 +1584,7 @@
     </row>
     <row hidden="1" r="38" spans="1:15">
       <c r="A38" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="14" t="n">
         <v>0</v>
@@ -1642,14 +1606,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C39" s="1" t="s"/>
       <c r="D39" s="3" t="s"/>
       <c r="E39" s="12" t="n">
         <v>2</v>
@@ -1676,7 +1638,7 @@
     </row>
     <row hidden="1" r="40" spans="1:15">
       <c r="A40" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="14" t="n">
         <v>0</v>
@@ -1698,16 +1660,14 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s"/>
+      <c r="D41" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>1</v>
@@ -1734,7 +1694,7 @@
     </row>
     <row hidden="1" r="42" spans="1:15">
       <c r="A42" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="14" t="n">
         <v>0</v>
@@ -1756,14 +1716,12 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C43" s="1" t="s"/>
       <c r="D43" s="3" t="s"/>
       <c r="E43" s="12" t="n">
         <v>2</v>
@@ -1790,7 +1748,7 @@
     </row>
     <row hidden="1" r="44" spans="1:15">
       <c r="A44" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="14" t="n">
         <v>0</v>
@@ -1812,14 +1770,12 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C45" s="1" t="s"/>
       <c r="D45" s="3" t="s"/>
       <c r="E45" s="12" t="n">
         <v>1</v>
@@ -1846,7 +1802,7 @@
     </row>
     <row hidden="1" r="46" spans="1:15">
       <c r="A46" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="14" t="n">
         <v>0</v>
@@ -1868,14 +1824,12 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C47" s="1" t="s"/>
       <c r="D47" s="3" t="s"/>
       <c r="E47" s="12" t="n">
         <v>1</v>
@@ -1902,7 +1856,7 @@
     </row>
     <row hidden="1" r="48" spans="1:15">
       <c r="A48" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="14" t="n">
         <v>0</v>
@@ -1924,12 +1878,12 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
       <c r="D49" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="6" t="s"/>
       <c r="F49" s="6" t="s"/>
@@ -1941,14 +1895,12 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C50" s="1" t="s"/>
       <c r="D50" s="3" t="s"/>
       <c r="E50" s="12" t="n">
         <v>2</v>
@@ -1975,7 +1927,7 @@
     </row>
     <row hidden="1" r="51" spans="1:15">
       <c r="A51" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" s="14" t="n">
         <v>0</v>
@@ -1997,14 +1949,12 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C52" s="1" t="s"/>
       <c r="D52" s="3" t="s"/>
       <c r="E52" s="12" t="n">
         <v>0</v>
@@ -2031,7 +1981,7 @@
     </row>
     <row hidden="1" r="53" spans="1:15">
       <c r="A53" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="14" t="n">
         <v>0</v>
@@ -2053,14 +2003,12 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C54" s="1" t="s"/>
       <c r="D54" s="3" t="s"/>
       <c r="E54" s="12" t="n">
         <v>2</v>
@@ -2087,7 +2035,7 @@
     </row>
     <row hidden="1" r="55" spans="1:15">
       <c r="A55" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="14" t="n">
         <v>0</v>
@@ -2109,7 +2057,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="16" t="s"/>
       <c r="C57" s="16" t="s"/>
@@ -2142,7 +2090,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="16" t="s"/>
       <c r="C58" s="16" t="s"/>
@@ -2162,7 +2110,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="16" t="s"/>
       <c r="C59" s="16" t="s"/>
@@ -2182,7 +2130,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="16" t="s"/>
       <c r="C60" s="16" t="s"/>
@@ -2201,80 +2149,47 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="12">
+        <f>SQRT(K57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="16" t="s"/>
-      <c r="C62" s="16" t="s"/>
-      <c r="D62" s="16" t="s"/>
-      <c r="E62" s="17">
-        <f>SUMPRODUCT(E2:E56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="F62" s="17">
-        <f>SUMPRODUCT(F2:F56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="G62" s="17">
-        <f>SUMPRODUCT(G2:G56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="H62" s="16" t="s"/>
-      <c r="I62" s="17">
-        <f>SUMPRODUCT(I2:I56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="J62" s="17">
-        <f>SUMPRODUCT(J2:J56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="K62" s="17">
-        <f>SUMPRODUCT(K2:K56,B2:B56,C2:C56)</f>
-        <v/>
+      <c r="C63" s="12" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="12">
-        <f>SQRT(K62)</f>
+      <c r="B64" s="16" t="s"/>
+      <c r="C64" s="17">
+        <f>I57-2*C62</f>
+        <v/>
+      </c>
+      <c r="D64" s="19">
+        <f>C64*C63</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="12" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="16" t="s"/>
-      <c r="C66" s="17">
-        <f>I62-2*C64</f>
-        <v/>
-      </c>
-      <c r="D66" s="19">
-        <f>C66*C65</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="16" t="s"/>
-      <c r="C67" s="17">
-        <f>I62+2*C64</f>
-        <v/>
-      </c>
-      <c r="D67" s="19">
-        <f>C67*C65</f>
+      <c r="B65" s="16" t="s"/>
+      <c r="C65" s="17">
+        <f>I57+2*C62</f>
+        <v/>
+      </c>
+      <c r="D65" s="19">
+        <f>C65*C63</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -627,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,9 +649,10 @@
     <col customWidth="1" hidden="1" max="13" min="13" style="1" width="10"/>
     <col customWidth="1" hidden="1" max="14" min="14" style="1" width="10"/>
     <col customWidth="1" hidden="1" max="15" min="15" style="1" width="10"/>
+    <col hidden="1" max="26" min="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -690,8 +691,9 @@
       <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Z1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -707,8 +709,11 @@
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
       <c r="K2" s="6" t="s"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -722,8 +727,11 @@
       <c r="I3" s="9" t="s"/>
       <c r="J3" s="9" t="s"/>
       <c r="K3" s="9" t="s"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Z3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,7 +763,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="5" spans="1:15">
+    <row hidden="1" r="5" spans="1:26">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
@@ -777,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -809,7 +817,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="7" spans="1:15">
+    <row hidden="1" r="7" spans="1:26">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -831,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -846,7 +854,7 @@
       <c r="J8" s="9" t="s"/>
       <c r="K8" s="9" t="s"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -878,7 +886,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="10" spans="1:15">
+    <row hidden="1" r="10" spans="1:26">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -900,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -932,7 +940,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="12" spans="1:15">
+    <row hidden="1" r="12" spans="1:26">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -954,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -986,7 +994,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="14" spans="1:15">
+    <row hidden="1" r="14" spans="1:26">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="16" spans="1:15">
+    <row hidden="1" r="16" spans="1:26">
       <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="18" spans="1:15">
+    <row hidden="1" r="18" spans="1:26">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="20" spans="1:15">
+    <row hidden="1" r="20" spans="1:26">
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:26">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1195,7 @@
       <c r="J21" s="6" t="s"/>
       <c r="K21" s="6" t="s"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:26">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1212,7 @@
       <c r="J22" s="9" t="s"/>
       <c r="K22" s="9" t="s"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1244,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="24" spans="1:15">
+    <row hidden="1" r="24" spans="1:26">
       <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="26" spans="1:15">
+    <row hidden="1" r="26" spans="1:26">
       <c r="A26" s="13" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="28" spans="1:15">
+    <row hidden="1" r="28" spans="1:26">
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="30" spans="1:15">
+    <row hidden="1" r="30" spans="1:26">
       <c r="A30" s="13" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="31" spans="1:15">
+    <row hidden="1" r="31" spans="1:26">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="33" spans="1:15">
+    <row hidden="1" r="33" spans="1:26">
       <c r="A33" s="13" t="s">
         <v>25</v>
       </c>
@@ -1496,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="34" spans="1:15">
+    <row hidden="1" r="34" spans="1:26">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:26">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
@@ -1535,7 +1543,7 @@
       <c r="J35" s="6" t="s"/>
       <c r="K35" s="6" t="s"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:26">
       <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
@@ -1550,7 +1558,7 @@
       <c r="J36" s="9" t="s"/>
       <c r="K36" s="9" t="s"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="38" spans="1:15">
+    <row hidden="1" r="38" spans="1:26">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -1604,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1636,7 +1644,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="40" spans="1:15">
+    <row hidden="1" r="40" spans="1:26">
       <c r="A40" s="13" t="s">
         <v>16</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1692,7 +1700,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="42" spans="1:15">
+    <row hidden="1" r="42" spans="1:26">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1746,7 +1754,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="44" spans="1:15">
+    <row hidden="1" r="44" spans="1:26">
       <c r="A44" s="13" t="s">
         <v>25</v>
       </c>
@@ -1768,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1800,7 +1808,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="46" spans="1:15">
+    <row hidden="1" r="46" spans="1:26">
       <c r="A46" s="13" t="s">
         <v>25</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="48" spans="1:15">
+    <row hidden="1" r="48" spans="1:26">
       <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:26">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -1893,7 +1901,7 @@
       <c r="J49" s="6" t="s"/>
       <c r="K49" s="6" t="s"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +1933,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="51" spans="1:15">
+    <row hidden="1" r="51" spans="1:26">
       <c r="A51" s="13" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +1987,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="53" spans="1:15">
+    <row hidden="1" r="53" spans="1:26">
       <c r="A53" s="13" t="s">
         <v>35</v>
       </c>
@@ -2001,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:26">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="55" spans="1:15">
+    <row hidden="1" r="55" spans="1:26">
       <c r="A55" s="13" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:26">
       <c r="A57" s="16" t="s">
         <v>52</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:26">
       <c r="A58" s="16" t="s">
         <v>53</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:26">
       <c r="A59" s="16" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:26">
       <c r="A60" s="16" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:26">
       <c r="A62" s="18" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:26">
       <c r="A63" s="18" t="s">
         <v>57</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:26">
       <c r="A64" s="16" t="s">
         <v>58</v>
       </c>
@@ -2179,7 +2187,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:26">
       <c r="A65" s="16" t="s">
         <v>59</v>
       </c>
@@ -2195,6 +2203,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K56"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B56" type="list">
+      <formula1>$Z$1:$Z$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estimates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$K$56</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$O$56</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Filter</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -189,7 +192,7 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>K</t>
+    <t>O</t>
   </si>
   <si>
     <t>Min (P=95%)</t>
@@ -271,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -322,6 +325,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -627,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AZ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,22 +643,26 @@
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="40"/>
     <col customWidth="1" hidden="1" max="2" min="2" style="2" width="3"/>
-    <col customWidth="1" max="3" min="3" style="1" width="6"/>
-    <col customWidth="1" max="4" min="4" style="3" width="50"/>
-    <col customWidth="1" max="5" min="5" style="4" width="7"/>
-    <col customWidth="1" max="6" min="6" style="4" width="7"/>
-    <col customWidth="1" max="7" min="7" style="4" width="7"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7"/>
-    <col customWidth="1" max="9" min="9" style="4" width="7"/>
-    <col customWidth="1" max="10" min="10" style="4" width="7"/>
-    <col customWidth="1" max="11" min="11" style="4" width="7"/>
-    <col customWidth="1" hidden="1" max="13" min="13" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="14" min="14" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="15" min="15" style="1" width="10"/>
-    <col hidden="1" max="26" min="26"/>
+    <col customWidth="1" max="3" min="3" style="1" width="8"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" max="8" min="8" style="3" width="50"/>
+    <col customWidth="1" max="9" min="9" style="4" width="8"/>
+    <col customWidth="1" max="10" min="10" style="4" width="8"/>
+    <col customWidth="1" max="11" min="11" style="4" width="8"/>
+    <col customWidth="1" max="12" min="12" style="1" width="4"/>
+    <col customWidth="1" max="13" min="13" style="4" width="8"/>
+    <col customWidth="1" max="14" min="14" style="4" width="8"/>
+    <col customWidth="1" max="15" min="15" style="4" width="8"/>
+    <col customWidth="1" hidden="1" max="27" min="27" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="28" min="28" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="29" min="29" style="1" width="10"/>
+    <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:52">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -663,1425 +673,1638 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5" t="s"/>
+      <c r="F1" s="5" t="s"/>
+      <c r="G1" s="5" t="s"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s"/>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s"/>
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="2" t="s"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AC1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="D2" s="6" t="s"/>
       <c r="E2" s="6" t="s"/>
       <c r="F2" s="6" t="s"/>
       <c r="G2" s="6" t="s"/>
-      <c r="H2" s="6" t="s"/>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
       <c r="K2" s="6" t="s"/>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="L2" s="6" t="s"/>
+      <c r="M2" s="6" t="s"/>
+      <c r="N2" s="6" t="s"/>
+      <c r="O2" s="6" t="s"/>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
-      <c r="D3" s="11" t="s"/>
+      <c r="D3" s="9" t="s"/>
       <c r="E3" s="9" t="s"/>
       <c r="F3" s="9" t="s"/>
       <c r="G3" s="9" t="s"/>
-      <c r="H3" s="9" t="s"/>
+      <c r="H3" s="11" t="s"/>
       <c r="I3" s="9" t="s"/>
       <c r="J3" s="9" t="s"/>
       <c r="K3" s="9" t="s"/>
-      <c r="Z3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="L3" s="9" t="s"/>
+      <c r="M3" s="9" t="s"/>
+      <c r="N3" s="9" t="s"/>
+      <c r="O3" s="9" t="s"/>
+      <c r="AZ3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s"/>
-      <c r="D4" s="3" t="s"/>
-      <c r="E4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s"/>
-      <c r="I4" s="12">
-        <f>(E4+4*F4+G4)/6</f>
-        <v/>
-      </c>
-      <c r="J4" s="12">
-        <f>(G4-E4)/6</f>
-        <v/>
-      </c>
-      <c r="K4" s="12">
-        <f>J4*J4</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="5" spans="1:26">
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s"/>
+      <c r="F4" s="1" t="s"/>
+      <c r="G4" s="1" t="s"/>
+      <c r="H4" s="3" t="s"/>
+      <c r="I4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s"/>
+      <c r="M4" s="12">
+        <f>(I4+4*J4+K4)/6</f>
+        <v/>
+      </c>
+      <c r="N4" s="12">
+        <f>(K4-I4)/6</f>
+        <v/>
+      </c>
+      <c r="O4" s="12">
+        <f>N4*N4</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="5" spans="1:52">
       <c r="A5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s"/>
       <c r="D5" s="13" t="s"/>
-      <c r="E5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="E5" s="13" t="s"/>
+      <c r="F5" s="13" t="s"/>
+      <c r="G5" s="13" t="s"/>
+      <c r="H5" s="13" t="s"/>
+      <c r="I5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s"/>
+      <c r="F6" s="1" t="s"/>
+      <c r="G6" s="1" t="s"/>
+      <c r="H6" s="3" t="s"/>
+      <c r="I6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s"/>
+      <c r="M6" s="12">
+        <f>(I6+4*J6+K6)/6</f>
+        <v/>
+      </c>
+      <c r="N6" s="12">
+        <f>(K6-I6)/6</f>
+        <v/>
+      </c>
+      <c r="O6" s="12">
+        <f>N6*N6</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="7" spans="1:52">
+      <c r="A7" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
-      <c r="D6" s="3" t="s"/>
-      <c r="E6" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s"/>
-      <c r="I6" s="12">
-        <f>(E6+4*F6+G6)/6</f>
-        <v/>
-      </c>
-      <c r="J6" s="12">
-        <f>(G6-E6)/6</f>
-        <v/>
-      </c>
-      <c r="K6" s="12">
-        <f>J6*J6</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="7" spans="1:26">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="13" t="s"/>
       <c r="D7" s="13" t="s"/>
-      <c r="E7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="n">
+      <c r="E7" s="13" t="s"/>
+      <c r="F7" s="13" t="s"/>
+      <c r="G7" s="13" t="s"/>
+      <c r="H7" s="13" t="s"/>
+      <c r="I7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="K7" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AC7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
-      <c r="D8" s="11" t="s"/>
+      <c r="D8" s="9" t="s"/>
       <c r="E8" s="9" t="s"/>
       <c r="F8" s="9" t="s"/>
       <c r="G8" s="9" t="s"/>
-      <c r="H8" s="9" t="s"/>
+      <c r="H8" s="11" t="s"/>
       <c r="I8" s="9" t="s"/>
       <c r="J8" s="9" t="s"/>
       <c r="K8" s="9" t="s"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="L8" s="9" t="s"/>
+      <c r="M8" s="9" t="s"/>
+      <c r="N8" s="9" t="s"/>
+      <c r="O8" s="9" t="s"/>
+    </row>
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s"/>
-      <c r="D9" s="3" t="s"/>
-      <c r="E9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12" t="n">
+      <c r="D9" s="1" t="s"/>
+      <c r="E9" s="1" t="s"/>
+      <c r="F9" s="1" t="s"/>
+      <c r="G9" s="1" t="s"/>
+      <c r="H9" s="3" t="s"/>
+      <c r="I9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s"/>
-      <c r="I9" s="12">
-        <f>(E9+4*F9+G9)/6</f>
-        <v/>
-      </c>
-      <c r="J9" s="12">
-        <f>(G9-E9)/6</f>
-        <v/>
-      </c>
-      <c r="K9" s="12">
-        <f>J9*J9</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="10" spans="1:26">
+      <c r="L9" s="1" t="s"/>
+      <c r="M9" s="12">
+        <f>(I9+4*J9+K9)/6</f>
+        <v/>
+      </c>
+      <c r="N9" s="12">
+        <f>(K9-I9)/6</f>
+        <v/>
+      </c>
+      <c r="O9" s="12">
+        <f>N9*N9</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="10" spans="1:52">
       <c r="A10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="13" t="s"/>
       <c r="D10" s="13" t="s"/>
-      <c r="E10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="15" t="n">
+      <c r="E10" s="13" t="s"/>
+      <c r="F10" s="13" t="s"/>
+      <c r="G10" s="13" t="s"/>
+      <c r="H10" s="13" t="s"/>
+      <c r="I10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AB10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s"/>
+      <c r="E11" s="1" t="s"/>
+      <c r="F11" s="1" t="s"/>
+      <c r="G11" s="1" t="s"/>
+      <c r="H11" s="3" t="s"/>
+      <c r="I11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="s"/>
+      <c r="M11" s="12">
+        <f>(I11+4*J11+K11)/6</f>
+        <v/>
+      </c>
+      <c r="N11" s="12">
+        <f>(K11-I11)/6</f>
+        <v/>
+      </c>
+      <c r="O11" s="12">
+        <f>N11*N11</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="12" spans="1:52">
+      <c r="A12" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s"/>
-      <c r="D11" s="3" t="s"/>
-      <c r="E11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s"/>
-      <c r="I11" s="12">
-        <f>(E11+4*F11+G11)/6</f>
-        <v/>
-      </c>
-      <c r="J11" s="12">
-        <f>(G11-E11)/6</f>
-        <v/>
-      </c>
-      <c r="K11" s="12">
-        <f>J11*J11</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="12" spans="1:26">
-      <c r="A12" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="13" t="s"/>
       <c r="D12" s="13" t="s"/>
-      <c r="E12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15" t="n">
+      <c r="E12" s="13" t="s"/>
+      <c r="F12" s="13" t="s"/>
+      <c r="G12" s="13" t="s"/>
+      <c r="H12" s="13" t="s"/>
+      <c r="I12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AB12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s"/>
-      <c r="D13" s="3" t="s"/>
-      <c r="E13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="n">
+      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s"/>
+      <c r="F13" s="1" t="s"/>
+      <c r="G13" s="1" t="s"/>
+      <c r="H13" s="3" t="s"/>
+      <c r="I13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="1" t="s"/>
-      <c r="I13" s="12">
-        <f>(E13+4*F13+G13)/6</f>
-        <v/>
-      </c>
-      <c r="J13" s="12">
-        <f>(G13-E13)/6</f>
-        <v/>
-      </c>
-      <c r="K13" s="12">
-        <f>J13*J13</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="14" spans="1:26">
+      <c r="L13" s="1" t="s"/>
+      <c r="M13" s="12">
+        <f>(I13+4*J13+K13)/6</f>
+        <v/>
+      </c>
+      <c r="N13" s="12">
+        <f>(K13-I13)/6</f>
+        <v/>
+      </c>
+      <c r="O13" s="12">
+        <f>N13*N13</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="14" spans="1:52">
       <c r="A14" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="13" t="s"/>
       <c r="D14" s="13" t="s"/>
-      <c r="E14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="n">
+      <c r="E14" s="13" t="s"/>
+      <c r="F14" s="13" t="s"/>
+      <c r="G14" s="13" t="s"/>
+      <c r="H14" s="13" t="s"/>
+      <c r="I14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AB14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s"/>
-      <c r="D15" s="3" t="s"/>
-      <c r="E15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s"/>
-      <c r="I15" s="12">
-        <f>(E15+4*F15+G15)/6</f>
-        <v/>
-      </c>
-      <c r="J15" s="12">
-        <f>(G15-E15)/6</f>
-        <v/>
-      </c>
-      <c r="K15" s="12">
-        <f>J15*J15</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="16" spans="1:26">
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
+      <c r="F15" s="1" t="s"/>
+      <c r="G15" s="1" t="s"/>
+      <c r="H15" s="3" t="s"/>
+      <c r="I15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s"/>
+      <c r="M15" s="12">
+        <f>(I15+4*J15+K15)/6</f>
+        <v/>
+      </c>
+      <c r="N15" s="12">
+        <f>(K15-I15)/6</f>
+        <v/>
+      </c>
+      <c r="O15" s="12">
+        <f>N15*N15</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="16" spans="1:52">
       <c r="A16" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s"/>
       <c r="D16" s="13" t="s"/>
-      <c r="E16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="E16" s="13" t="s"/>
+      <c r="F16" s="13" t="s"/>
+      <c r="G16" s="13" t="s"/>
+      <c r="H16" s="13" t="s"/>
+      <c r="I16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s"/>
-      <c r="D17" s="3" t="s"/>
-      <c r="E17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="s"/>
-      <c r="I17" s="12">
-        <f>(E17+4*F17+G17)/6</f>
-        <v/>
-      </c>
-      <c r="J17" s="12">
-        <f>(G17-E17)/6</f>
-        <v/>
-      </c>
-      <c r="K17" s="12">
-        <f>J17*J17</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="18" spans="1:26">
+      <c r="D17" s="1" t="s"/>
+      <c r="E17" s="1" t="s"/>
+      <c r="F17" s="1" t="s"/>
+      <c r="G17" s="1" t="s"/>
+      <c r="H17" s="3" t="s"/>
+      <c r="I17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="s"/>
+      <c r="M17" s="12">
+        <f>(I17+4*J17+K17)/6</f>
+        <v/>
+      </c>
+      <c r="N17" s="12">
+        <f>(K17-I17)/6</f>
+        <v/>
+      </c>
+      <c r="O17" s="12">
+        <f>N17*N17</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="18" spans="1:52">
       <c r="A18" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="13" t="s"/>
       <c r="D18" s="13" t="s"/>
-      <c r="E18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="E18" s="13" t="s"/>
+      <c r="F18" s="13" t="s"/>
+      <c r="G18" s="13" t="s"/>
+      <c r="H18" s="13" t="s"/>
+      <c r="I18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s"/>
+      <c r="E19" s="1" t="s"/>
+      <c r="F19" s="1" t="s"/>
+      <c r="G19" s="1" t="s"/>
+      <c r="H19" s="3" t="s"/>
+      <c r="I19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s"/>
+      <c r="M19" s="12">
+        <f>(I19+4*J19+K19)/6</f>
+        <v/>
+      </c>
+      <c r="N19" s="12">
+        <f>(K19-I19)/6</f>
+        <v/>
+      </c>
+      <c r="O19" s="12">
+        <f>N19*N19</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="20" spans="1:52">
+      <c r="A20" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
-      <c r="D19" s="3" t="s"/>
-      <c r="E19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s"/>
-      <c r="I19" s="12">
-        <f>(E19+4*F19+G19)/6</f>
-        <v/>
-      </c>
-      <c r="J19" s="12">
-        <f>(G19-E19)/6</f>
-        <v/>
-      </c>
-      <c r="K19" s="12">
-        <f>J19*J19</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="20" spans="1:26">
-      <c r="A20" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="B20" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="13" t="s"/>
       <c r="D20" s="13" t="s"/>
-      <c r="E20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="15" t="n">
+      <c r="E20" s="13" t="s"/>
+      <c r="F20" s="13" t="s"/>
+      <c r="G20" s="13" t="s"/>
+      <c r="H20" s="13" t="s"/>
+      <c r="I20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AB20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
-      <c r="D21" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="D21" s="6" t="s"/>
       <c r="E21" s="6" t="s"/>
       <c r="F21" s="6" t="s"/>
       <c r="G21" s="6" t="s"/>
-      <c r="H21" s="6" t="s"/>
+      <c r="H21" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="I21" s="6" t="s"/>
       <c r="J21" s="6" t="s"/>
       <c r="K21" s="6" t="s"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="L21" s="6" t="s"/>
+      <c r="M21" s="6" t="s"/>
+      <c r="N21" s="6" t="s"/>
+      <c r="O21" s="6" t="s"/>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10" t="s"/>
       <c r="C22" s="9" t="s"/>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="D22" s="9" t="s"/>
       <c r="E22" s="9" t="s"/>
       <c r="F22" s="9" t="s"/>
       <c r="G22" s="9" t="s"/>
-      <c r="H22" s="9" t="s"/>
+      <c r="H22" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I22" s="9" t="s"/>
       <c r="J22" s="9" t="s"/>
       <c r="K22" s="9" t="s"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="L22" s="9" t="s"/>
+      <c r="M22" s="9" t="s"/>
+      <c r="N22" s="9" t="s"/>
+      <c r="O22" s="9" t="s"/>
+    </row>
+    <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s"/>
-      <c r="D23" s="3" t="s"/>
-      <c r="E23" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="12" t="n">
+      <c r="D23" s="1" t="s"/>
+      <c r="E23" s="1" t="s"/>
+      <c r="F23" s="1" t="s"/>
+      <c r="G23" s="1" t="s"/>
+      <c r="H23" s="3" t="s"/>
+      <c r="I23" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="1" t="s"/>
-      <c r="I23" s="12">
-        <f>(E23+4*F23+G23)/6</f>
-        <v/>
-      </c>
-      <c r="J23" s="12">
-        <f>(G23-E23)/6</f>
-        <v/>
-      </c>
-      <c r="K23" s="12">
-        <f>J23*J23</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="24" spans="1:26">
+      <c r="L23" s="1" t="s"/>
+      <c r="M23" s="12">
+        <f>(I23+4*J23+K23)/6</f>
+        <v/>
+      </c>
+      <c r="N23" s="12">
+        <f>(K23-I23)/6</f>
+        <v/>
+      </c>
+      <c r="O23" s="12">
+        <f>N23*N23</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="24" spans="1:52">
       <c r="A24" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="13" t="s"/>
       <c r="D24" s="13" t="s"/>
-      <c r="E24" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="15" t="n">
+      <c r="E24" s="13" t="s"/>
+      <c r="F24" s="13" t="s"/>
+      <c r="G24" s="13" t="s"/>
+      <c r="H24" s="13" t="s"/>
+      <c r="I24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AB24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s"/>
-      <c r="D25" s="3" t="s"/>
-      <c r="E25" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1" t="s"/>
-      <c r="I25" s="12">
-        <f>(E25+4*F25+G25)/6</f>
-        <v/>
-      </c>
-      <c r="J25" s="12">
-        <f>(G25-E25)/6</f>
-        <v/>
-      </c>
-      <c r="K25" s="12">
-        <f>J25*J25</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="26" spans="1:26">
+      <c r="D25" s="1" t="s"/>
+      <c r="E25" s="1" t="s"/>
+      <c r="F25" s="1" t="s"/>
+      <c r="G25" s="1" t="s"/>
+      <c r="H25" s="3" t="s"/>
+      <c r="I25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="s"/>
+      <c r="M25" s="12">
+        <f>(I25+4*J25+K25)/6</f>
+        <v/>
+      </c>
+      <c r="N25" s="12">
+        <f>(K25-I25)/6</f>
+        <v/>
+      </c>
+      <c r="O25" s="12">
+        <f>N25*N25</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="26" spans="1:52">
       <c r="A26" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="13" t="s"/>
       <c r="D26" s="13" t="s"/>
-      <c r="E26" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="E26" s="13" t="s"/>
+      <c r="F26" s="13" t="s"/>
+      <c r="G26" s="13" t="s"/>
+      <c r="H26" s="13" t="s"/>
+      <c r="I26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s"/>
-      <c r="D27" s="3" t="s"/>
-      <c r="E27" s="12" t="n">
+      <c r="D27" s="1" t="s"/>
+      <c r="E27" s="1" t="s"/>
+      <c r="F27" s="1" t="s"/>
+      <c r="G27" s="1" t="s"/>
+      <c r="H27" s="3" t="s"/>
+      <c r="I27" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="J27" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="K27" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="H27" s="1" t="s"/>
-      <c r="I27" s="12">
-        <f>(E27+4*F27+G27)/6</f>
-        <v/>
-      </c>
-      <c r="J27" s="12">
-        <f>(G27-E27)/6</f>
-        <v/>
-      </c>
-      <c r="K27" s="12">
-        <f>J27*J27</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="28" spans="1:26">
+      <c r="L27" s="1" t="s"/>
+      <c r="M27" s="12">
+        <f>(I27+4*J27+K27)/6</f>
+        <v/>
+      </c>
+      <c r="N27" s="12">
+        <f>(K27-I27)/6</f>
+        <v/>
+      </c>
+      <c r="O27" s="12">
+        <f>N27*N27</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="28" spans="1:52">
       <c r="A28" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="13" t="s"/>
       <c r="D28" s="13" t="s"/>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="13" t="s"/>
+      <c r="F28" s="13" t="s"/>
+      <c r="G28" s="13" t="s"/>
+      <c r="H28" s="13" t="s"/>
+      <c r="I28" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="J28" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="K28" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AB28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s"/>
-      <c r="D29" s="3" t="s"/>
-      <c r="E29" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12" t="n">
+      <c r="D29" s="1" t="s"/>
+      <c r="E29" s="1" t="s"/>
+      <c r="F29" s="1" t="s"/>
+      <c r="G29" s="1" t="s"/>
+      <c r="H29" s="3" t="s"/>
+      <c r="I29" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="K29" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="H29" s="1" t="s"/>
-      <c r="I29" s="12">
-        <f>(E29+4*F29+G29)/6</f>
-        <v/>
-      </c>
-      <c r="J29" s="12">
-        <f>(G29-E29)/6</f>
-        <v/>
-      </c>
-      <c r="K29" s="12">
-        <f>J29*J29</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="30" spans="1:26">
+      <c r="L29" s="1" t="s"/>
+      <c r="M29" s="12">
+        <f>(I29+4*J29+K29)/6</f>
+        <v/>
+      </c>
+      <c r="N29" s="12">
+        <f>(K29-I29)/6</f>
+        <v/>
+      </c>
+      <c r="O29" s="12">
+        <f>N29*N29</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="30" spans="1:52">
       <c r="A30" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="13" t="s"/>
       <c r="D30" s="13" t="s"/>
-      <c r="E30" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row hidden="1" r="31" spans="1:26">
+      <c r="E30" s="13" t="s"/>
+      <c r="F30" s="13" t="s"/>
+      <c r="G30" s="13" t="s"/>
+      <c r="H30" s="13" t="s"/>
+      <c r="I30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row hidden="1" r="31" spans="1:52">
       <c r="A31" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="13" t="s"/>
       <c r="D31" s="13" t="s"/>
-      <c r="E31" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15" t="n">
+      <c r="E31" s="13" t="s"/>
+      <c r="F31" s="13" t="s"/>
+      <c r="G31" s="13" t="s"/>
+      <c r="H31" s="13" t="s"/>
+      <c r="I31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="15" t="n">
+      <c r="K31" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AC31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s"/>
-      <c r="D32" s="3" t="s"/>
-      <c r="E32" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="n">
+      <c r="D32" s="1" t="s"/>
+      <c r="E32" s="1" t="s"/>
+      <c r="F32" s="1" t="s"/>
+      <c r="G32" s="1" t="s"/>
+      <c r="H32" s="3" t="s"/>
+      <c r="I32" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="K32" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H32" s="1" t="s"/>
-      <c r="I32" s="12">
-        <f>(E32+4*F32+G32)/6</f>
-        <v/>
-      </c>
-      <c r="J32" s="12">
-        <f>(G32-E32)/6</f>
-        <v/>
-      </c>
-      <c r="K32" s="12">
-        <f>J32*J32</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="33" spans="1:26">
+      <c r="L32" s="1" t="s"/>
+      <c r="M32" s="12">
+        <f>(I32+4*J32+K32)/6</f>
+        <v/>
+      </c>
+      <c r="N32" s="12">
+        <f>(K32-I32)/6</f>
+        <v/>
+      </c>
+      <c r="O32" s="12">
+        <f>N32*N32</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="33" spans="1:52">
       <c r="A33" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="13" t="s"/>
       <c r="D33" s="13" t="s"/>
-      <c r="E33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row hidden="1" r="34" spans="1:26">
+      <c r="E33" s="13" t="s"/>
+      <c r="F33" s="13" t="s"/>
+      <c r="G33" s="13" t="s"/>
+      <c r="H33" s="13" t="s"/>
+      <c r="I33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row hidden="1" r="34" spans="1:52">
       <c r="A34" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s"/>
       <c r="D34" s="13" t="s"/>
-      <c r="E34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15" t="n">
+      <c r="E34" s="13" t="s"/>
+      <c r="F34" s="13" t="s"/>
+      <c r="G34" s="13" t="s"/>
+      <c r="H34" s="13" t="s"/>
+      <c r="I34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AC34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
-      <c r="D35" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="D35" s="6" t="s"/>
       <c r="E35" s="6" t="s"/>
       <c r="F35" s="6" t="s"/>
       <c r="G35" s="6" t="s"/>
-      <c r="H35" s="6" t="s"/>
+      <c r="H35" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="I35" s="6" t="s"/>
       <c r="J35" s="6" t="s"/>
       <c r="K35" s="6" t="s"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="L35" s="6" t="s"/>
+      <c r="M35" s="6" t="s"/>
+      <c r="N35" s="6" t="s"/>
+      <c r="O35" s="6" t="s"/>
+    </row>
+    <row r="36" spans="1:52">
       <c r="A36" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="10" t="s"/>
       <c r="C36" s="9" t="s"/>
-      <c r="D36" s="11" t="s"/>
+      <c r="D36" s="9" t="s"/>
       <c r="E36" s="9" t="s"/>
       <c r="F36" s="9" t="s"/>
       <c r="G36" s="9" t="s"/>
-      <c r="H36" s="9" t="s"/>
+      <c r="H36" s="11" t="s"/>
       <c r="I36" s="9" t="s"/>
       <c r="J36" s="9" t="s"/>
       <c r="K36" s="9" t="s"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="L36" s="9" t="s"/>
+      <c r="M36" s="9" t="s"/>
+      <c r="N36" s="9" t="s"/>
+      <c r="O36" s="9" t="s"/>
+    </row>
+    <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s"/>
-      <c r="D37" s="3" t="s"/>
-      <c r="E37" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="12" t="n">
+      <c r="D37" s="1" t="s"/>
+      <c r="E37" s="1" t="s"/>
+      <c r="F37" s="1" t="s"/>
+      <c r="G37" s="1" t="s"/>
+      <c r="H37" s="3" t="s"/>
+      <c r="I37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H37" s="1" t="s"/>
-      <c r="I37" s="12">
-        <f>(E37+4*F37+G37)/6</f>
-        <v/>
-      </c>
-      <c r="J37" s="12">
-        <f>(G37-E37)/6</f>
-        <v/>
-      </c>
-      <c r="K37" s="12">
-        <f>J37*J37</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="38" spans="1:26">
+      <c r="L37" s="1" t="s"/>
+      <c r="M37" s="12">
+        <f>(I37+4*J37+K37)/6</f>
+        <v/>
+      </c>
+      <c r="N37" s="12">
+        <f>(K37-I37)/6</f>
+        <v/>
+      </c>
+      <c r="O37" s="12">
+        <f>N37*N37</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="38" spans="1:52">
       <c r="A38" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="13" t="s"/>
       <c r="D38" s="13" t="s"/>
-      <c r="E38" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="15" t="n">
+      <c r="E38" s="13" t="s"/>
+      <c r="F38" s="13" t="s"/>
+      <c r="G38" s="13" t="s"/>
+      <c r="H38" s="13" t="s"/>
+      <c r="I38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AC38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s"/>
-      <c r="D39" s="3" t="s"/>
-      <c r="E39" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" s="12" t="n">
+      <c r="D39" s="1" t="s"/>
+      <c r="E39" s="1" t="s"/>
+      <c r="F39" s="1" t="s"/>
+      <c r="G39" s="1" t="s"/>
+      <c r="H39" s="3" t="s"/>
+      <c r="I39" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G39" s="12" t="n">
+      <c r="K39" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H39" s="1" t="s"/>
-      <c r="I39" s="12">
-        <f>(E39+4*F39+G39)/6</f>
-        <v/>
-      </c>
-      <c r="J39" s="12">
-        <f>(G39-E39)/6</f>
-        <v/>
-      </c>
-      <c r="K39" s="12">
-        <f>J39*J39</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="40" spans="1:26">
+      <c r="L39" s="1" t="s"/>
+      <c r="M39" s="12">
+        <f>(I39+4*J39+K39)/6</f>
+        <v/>
+      </c>
+      <c r="N39" s="12">
+        <f>(K39-I39)/6</f>
+        <v/>
+      </c>
+      <c r="O39" s="12">
+        <f>N39*N39</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="40" spans="1:52">
       <c r="A40" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="13" t="s"/>
       <c r="D40" s="13" t="s"/>
-      <c r="E40" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="15" t="n">
+      <c r="E40" s="13" t="s"/>
+      <c r="F40" s="13" t="s"/>
+      <c r="G40" s="13" t="s"/>
+      <c r="H40" s="13" t="s"/>
+      <c r="I40" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G40" s="15" t="n">
+      <c r="K40" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AC40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s"/>
-      <c r="D41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1" t="s"/>
-      <c r="I41" s="12">
-        <f>(E41+4*F41+G41)/6</f>
-        <v/>
-      </c>
-      <c r="J41" s="12">
-        <f>(G41-E41)/6</f>
-        <v/>
-      </c>
-      <c r="K41" s="12">
-        <f>J41*J41</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="42" spans="1:26">
+      <c r="D41" s="1" t="s"/>
+      <c r="E41" s="1" t="s"/>
+      <c r="F41" s="1" t="s"/>
+      <c r="G41" s="1" t="s"/>
+      <c r="H41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1" t="s"/>
+      <c r="M41" s="12">
+        <f>(I41+4*J41+K41)/6</f>
+        <v/>
+      </c>
+      <c r="N41" s="12">
+        <f>(K41-I41)/6</f>
+        <v/>
+      </c>
+      <c r="O41" s="12">
+        <f>N41*N41</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="42" spans="1:52">
       <c r="A42" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="13" t="s"/>
       <c r="D42" s="13" t="s"/>
-      <c r="E42" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="E42" s="13" t="s"/>
+      <c r="F42" s="13" t="s"/>
+      <c r="G42" s="13" t="s"/>
+      <c r="H42" s="13" t="s"/>
+      <c r="I42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s"/>
-      <c r="D43" s="3" t="s"/>
-      <c r="E43" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="12" t="n">
+      <c r="D43" s="1" t="s"/>
+      <c r="E43" s="1" t="s"/>
+      <c r="F43" s="1" t="s"/>
+      <c r="G43" s="1" t="s"/>
+      <c r="H43" s="3" t="s"/>
+      <c r="I43" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G43" s="12" t="n">
+      <c r="K43" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H43" s="1" t="s"/>
-      <c r="I43" s="12">
-        <f>(E43+4*F43+G43)/6</f>
-        <v/>
-      </c>
-      <c r="J43" s="12">
-        <f>(G43-E43)/6</f>
-        <v/>
-      </c>
-      <c r="K43" s="12">
-        <f>J43*J43</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="44" spans="1:26">
+      <c r="L43" s="1" t="s"/>
+      <c r="M43" s="12">
+        <f>(I43+4*J43+K43)/6</f>
+        <v/>
+      </c>
+      <c r="N43" s="12">
+        <f>(K43-I43)/6</f>
+        <v/>
+      </c>
+      <c r="O43" s="12">
+        <f>N43*N43</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="44" spans="1:52">
       <c r="A44" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="13" t="s"/>
       <c r="D44" s="13" t="s"/>
-      <c r="E44" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="15" t="n">
+      <c r="E44" s="13" t="s"/>
+      <c r="F44" s="13" t="s"/>
+      <c r="G44" s="13" t="s"/>
+      <c r="H44" s="13" t="s"/>
+      <c r="I44" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="G44" s="15" t="n">
+      <c r="K44" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="N44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AB44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s"/>
-      <c r="D45" s="3" t="s"/>
-      <c r="E45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" s="1" t="s"/>
-      <c r="I45" s="12">
-        <f>(E45+4*F45+G45)/6</f>
-        <v/>
-      </c>
-      <c r="J45" s="12">
-        <f>(G45-E45)/6</f>
-        <v/>
-      </c>
-      <c r="K45" s="12">
-        <f>J45*J45</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="46" spans="1:26">
+      <c r="D45" s="1" t="s"/>
+      <c r="E45" s="1" t="s"/>
+      <c r="F45" s="1" t="s"/>
+      <c r="G45" s="1" t="s"/>
+      <c r="H45" s="3" t="s"/>
+      <c r="I45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" s="1" t="s"/>
+      <c r="M45" s="12">
+        <f>(I45+4*J45+K45)/6</f>
+        <v/>
+      </c>
+      <c r="N45" s="12">
+        <f>(K45-I45)/6</f>
+        <v/>
+      </c>
+      <c r="O45" s="12">
+        <f>N45*N45</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="46" spans="1:52">
       <c r="A46" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="13" t="s"/>
       <c r="D46" s="13" t="s"/>
-      <c r="E46" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="E46" s="13" t="s"/>
+      <c r="F46" s="13" t="s"/>
+      <c r="G46" s="13" t="s"/>
+      <c r="H46" s="13" t="s"/>
+      <c r="I46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s"/>
-      <c r="D47" s="3" t="s"/>
-      <c r="E47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="1" t="s"/>
-      <c r="I47" s="12">
-        <f>(E47+4*F47+G47)/6</f>
-        <v/>
-      </c>
-      <c r="J47" s="12">
-        <f>(G47-E47)/6</f>
-        <v/>
-      </c>
-      <c r="K47" s="12">
-        <f>J47*J47</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="48" spans="1:26">
+      <c r="D47" s="1" t="s"/>
+      <c r="E47" s="1" t="s"/>
+      <c r="F47" s="1" t="s"/>
+      <c r="G47" s="1" t="s"/>
+      <c r="H47" s="3" t="s"/>
+      <c r="I47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1" t="s"/>
+      <c r="M47" s="12">
+        <f>(I47+4*J47+K47)/6</f>
+        <v/>
+      </c>
+      <c r="N47" s="12">
+        <f>(K47-I47)/6</f>
+        <v/>
+      </c>
+      <c r="O47" s="12">
+        <f>N47*N47</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="48" spans="1:52">
       <c r="A48" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="13" t="s"/>
       <c r="D48" s="13" t="s"/>
-      <c r="E48" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="E48" s="13" t="s"/>
+      <c r="F48" s="13" t="s"/>
+      <c r="G48" s="13" t="s"/>
+      <c r="H48" s="13" t="s"/>
+      <c r="I48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
-      <c r="D49" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="D49" s="6" t="s"/>
       <c r="E49" s="6" t="s"/>
       <c r="F49" s="6" t="s"/>
       <c r="G49" s="6" t="s"/>
-      <c r="H49" s="6" t="s"/>
+      <c r="H49" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="I49" s="6" t="s"/>
       <c r="J49" s="6" t="s"/>
       <c r="K49" s="6" t="s"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="L49" s="6" t="s"/>
+      <c r="M49" s="6" t="s"/>
+      <c r="N49" s="6" t="s"/>
+      <c r="O49" s="6" t="s"/>
+    </row>
+    <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s"/>
-      <c r="D50" s="3" t="s"/>
-      <c r="E50" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" s="12" t="n">
+      <c r="D50" s="1" t="s"/>
+      <c r="E50" s="1" t="s"/>
+      <c r="F50" s="1" t="s"/>
+      <c r="G50" s="1" t="s"/>
+      <c r="H50" s="3" t="s"/>
+      <c r="I50" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G50" s="12" t="n">
+      <c r="K50" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="H50" s="1" t="s"/>
-      <c r="I50" s="12">
-        <f>(E50+4*F50+G50)/6</f>
-        <v/>
-      </c>
-      <c r="J50" s="12">
-        <f>(G50-E50)/6</f>
-        <v/>
-      </c>
-      <c r="K50" s="12">
-        <f>J50*J50</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="51" spans="1:26">
+      <c r="L50" s="1" t="s"/>
+      <c r="M50" s="12">
+        <f>(I50+4*J50+K50)/6</f>
+        <v/>
+      </c>
+      <c r="N50" s="12">
+        <f>(K50-I50)/6</f>
+        <v/>
+      </c>
+      <c r="O50" s="12">
+        <f>N50*N50</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="51" spans="1:52">
       <c r="A51" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="13" t="s"/>
       <c r="D51" s="13" t="s"/>
-      <c r="E51" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" s="15" t="n">
+      <c r="E51" s="13" t="s"/>
+      <c r="F51" s="13" t="s"/>
+      <c r="G51" s="13" t="s"/>
+      <c r="H51" s="13" t="s"/>
+      <c r="I51" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G51" s="15" t="n">
+      <c r="K51" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="N51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AB51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s"/>
-      <c r="D52" s="3" t="s"/>
-      <c r="E52" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="12" t="n">
+      <c r="D52" s="1" t="s"/>
+      <c r="E52" s="1" t="s"/>
+      <c r="F52" s="1" t="s"/>
+      <c r="G52" s="1" t="s"/>
+      <c r="H52" s="3" t="s"/>
+      <c r="I52" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G52" s="12" t="n">
+      <c r="K52" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="H52" s="1" t="s"/>
-      <c r="I52" s="12">
-        <f>(E52+4*F52+G52)/6</f>
-        <v/>
-      </c>
-      <c r="J52" s="12">
-        <f>(G52-E52)/6</f>
-        <v/>
-      </c>
-      <c r="K52" s="12">
-        <f>J52*J52</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="53" spans="1:26">
+      <c r="L52" s="1" t="s"/>
+      <c r="M52" s="12">
+        <f>(I52+4*J52+K52)/6</f>
+        <v/>
+      </c>
+      <c r="N52" s="12">
+        <f>(K52-I52)/6</f>
+        <v/>
+      </c>
+      <c r="O52" s="12">
+        <f>N52*N52</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="53" spans="1:52">
       <c r="A53" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="13" t="s"/>
       <c r="D53" s="13" t="s"/>
-      <c r="E53" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="15" t="n">
+      <c r="E53" s="13" t="s"/>
+      <c r="F53" s="13" t="s"/>
+      <c r="G53" s="13" t="s"/>
+      <c r="H53" s="13" t="s"/>
+      <c r="I53" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="15" t="n">
+      <c r="K53" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="O53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AC53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s"/>
-      <c r="D54" s="3" t="s"/>
-      <c r="E54" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" s="12" t="n">
+      <c r="D54" s="1" t="s"/>
+      <c r="E54" s="1" t="s"/>
+      <c r="F54" s="1" t="s"/>
+      <c r="G54" s="1" t="s"/>
+      <c r="H54" s="3" t="s"/>
+      <c r="I54" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="12" t="n">
+      <c r="K54" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H54" s="1" t="s"/>
-      <c r="I54" s="12">
-        <f>(E54+4*F54+G54)/6</f>
-        <v/>
-      </c>
-      <c r="J54" s="12">
-        <f>(G54-E54)/6</f>
-        <v/>
-      </c>
-      <c r="K54" s="12">
-        <f>J54*J54</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="55" spans="1:26">
+      <c r="L54" s="1" t="s"/>
+      <c r="M54" s="12">
+        <f>(I54+4*J54+K54)/6</f>
+        <v/>
+      </c>
+      <c r="N54" s="12">
+        <f>(K54-I54)/6</f>
+        <v/>
+      </c>
+      <c r="O54" s="12">
+        <f>N54*N54</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="55" spans="1:52">
       <c r="A55" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="13" t="s"/>
       <c r="D55" s="13" t="s"/>
-      <c r="E55" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" s="15" t="n">
+      <c r="E55" s="13" t="s"/>
+      <c r="F55" s="13" t="s"/>
+      <c r="G55" s="13" t="s"/>
+      <c r="H55" s="13" t="s"/>
+      <c r="I55" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="15" t="n">
+      <c r="K55" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="N55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AB55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
       <c r="A57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="16" t="s"/>
       <c r="C57" s="16" t="s"/>
       <c r="D57" s="16" t="s"/>
-      <c r="E57" s="17">
-        <f>SUMPRODUCT(E2:E56,B2:B56)</f>
-        <v/>
-      </c>
-      <c r="F57" s="17">
-        <f>SUMPRODUCT(F2:F56,B2:B56)</f>
-        <v/>
-      </c>
-      <c r="G57" s="17">
-        <f>SUMPRODUCT(G2:G56,B2:B56)</f>
-        <v/>
-      </c>
+      <c r="E57" s="16" t="s"/>
+      <c r="F57" s="16" t="s"/>
+      <c r="G57" s="16" t="s"/>
       <c r="H57" s="16" t="s"/>
       <c r="I57" s="17">
         <f>SUMPRODUCT(I2:I56,B2:B56)</f>
@@ -2095,117 +2318,174 @@
         <f>SUMPRODUCT(K2:K56,B2:B56)</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="L57" s="16" t="s"/>
+      <c r="M57" s="17">
+        <f>SUMPRODUCT(M2:M56,B2:B56)</f>
+        <v/>
+      </c>
+      <c r="N57" s="17">
+        <f>SUMPRODUCT(N2:N56,B2:B56)</f>
+        <v/>
+      </c>
+      <c r="O57" s="17">
+        <f>SUMPRODUCT(O2:O56,B2:B56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
       <c r="A58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="16" t="s"/>
       <c r="C58" s="16" t="s"/>
       <c r="D58" s="16" t="s"/>
-      <c r="E58" s="17">
-        <f>SUMPRODUCT(E2:E56,M2:M56)</f>
-        <v/>
-      </c>
-      <c r="F58" s="17">
-        <f>SUMPRODUCT(F2:F56,M2:M56)</f>
-        <v/>
-      </c>
-      <c r="G58" s="17">
-        <f>SUMPRODUCT(G2:G56,M2:M56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="E58" s="16" t="s"/>
+      <c r="F58" s="16" t="s"/>
+      <c r="G58" s="16" t="s"/>
+      <c r="H58" s="16" t="s"/>
+      <c r="I58" s="17">
+        <f>SUMPRODUCT(I2:I56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="J58" s="17">
+        <f>SUMPRODUCT(J2:J56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="K58" s="17">
+        <f>SUMPRODUCT(K2:K56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="M58" s="17">
+        <f>(I58+4*J58+K58)/6</f>
+        <v/>
+      </c>
+      <c r="N58" s="18">
+        <f>(M58/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
       <c r="A59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="16" t="s"/>
       <c r="C59" s="16" t="s"/>
       <c r="D59" s="16" t="s"/>
-      <c r="E59" s="17">
-        <f>SUMPRODUCT(E2:E56,N2:N56)</f>
-        <v/>
-      </c>
-      <c r="F59" s="17">
-        <f>SUMPRODUCT(F2:F56,N2:N56)</f>
-        <v/>
-      </c>
-      <c r="G59" s="17">
-        <f>SUMPRODUCT(G2:G56,N2:N56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="E59" s="16" t="s"/>
+      <c r="F59" s="16" t="s"/>
+      <c r="G59" s="16" t="s"/>
+      <c r="H59" s="16" t="s"/>
+      <c r="I59" s="17">
+        <f>SUMPRODUCT(I2:I56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="J59" s="17">
+        <f>SUMPRODUCT(J2:J56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="K59" s="17">
+        <f>SUMPRODUCT(K2:K56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="M59" s="17">
+        <f>(I59+4*J59+K59)/6</f>
+        <v/>
+      </c>
+      <c r="N59" s="18">
+        <f>(M59/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
       <c r="A60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="16" t="s"/>
       <c r="C60" s="16" t="s"/>
       <c r="D60" s="16" t="s"/>
-      <c r="E60" s="17">
-        <f>SUMPRODUCT(E2:E56,O2:O56)</f>
-        <v/>
-      </c>
-      <c r="F60" s="17">
-        <f>SUMPRODUCT(F2:F56,O2:O56)</f>
-        <v/>
-      </c>
-      <c r="G60" s="17">
-        <f>SUMPRODUCT(G2:G56,O2:O56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="18" t="s">
-        <v>56</v>
+      <c r="E60" s="16" t="s"/>
+      <c r="F60" s="16" t="s"/>
+      <c r="G60" s="16" t="s"/>
+      <c r="H60" s="16" t="s"/>
+      <c r="I60" s="17">
+        <f>SUMPRODUCT(I2:I56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="J60" s="17">
+        <f>SUMPRODUCT(J2:J56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="K60" s="17">
+        <f>SUMPRODUCT(K2:K56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="M60" s="17">
+        <f>(I60+4*J60+K60)/6</f>
+        <v/>
+      </c>
+      <c r="N60" s="18">
+        <f>(M60/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C62" s="12">
-        <f>SQRT(K57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="18" t="s">
-        <v>57</v>
+        <f>SQRT(O57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="16" t="s"/>
-      <c r="C64" s="17">
-        <f>I57-2*C62</f>
-        <v/>
-      </c>
-      <c r="D64" s="19">
-        <f>C64*C63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:52">
       <c r="A65" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="16" t="s"/>
       <c r="C65" s="17">
-        <f>I57+2*C62</f>
-        <v/>
-      </c>
-      <c r="D65" s="19">
+        <f>M57-2*C62</f>
+        <v/>
+      </c>
+      <c r="D65" s="16" t="s"/>
+      <c r="E65" s="16" t="s"/>
+      <c r="F65" s="16" t="s"/>
+      <c r="G65" s="16" t="s"/>
+      <c r="H65" s="20">
         <f>C65*C63</f>
         <v/>
       </c>
     </row>
+    <row r="66" spans="1:52">
+      <c r="A66" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="16" t="s"/>
+      <c r="C66" s="17">
+        <f>M57+2*C62</f>
+        <v/>
+      </c>
+      <c r="D66" s="16" t="s"/>
+      <c r="E66" s="16" t="s"/>
+      <c r="F66" s="16" t="s"/>
+      <c r="G66" s="16" t="s"/>
+      <c r="H66" s="20">
+        <f>C66*C63</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K56"/>
+  <autoFilter ref="A1:O56"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B56" type="list">
-      <formula1>$Z$1:$Z$3</formula1>
+      <formula1>$AZ$1:$AZ$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Sq</t>
   </si>
   <si>
-    <t>(adm)</t>
-  </si>
-  <si>
-    <t>(analysis)</t>
-  </si>
-  <si>
-    <t>(coding)</t>
+    <t>Role</t>
   </si>
   <si>
     <t>Stage 1: Implement the Idea</t>
@@ -192,7 +186,7 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>O</t>
+    <t>K</t>
   </si>
   <si>
     <t>Min (P=95%)</t>
@@ -656,9 +650,7 @@
     <col customWidth="1" max="13" min="13" style="4" width="8"/>
     <col customWidth="1" max="14" min="14" style="4" width="8"/>
     <col customWidth="1" max="15" min="15" style="4" width="8"/>
-    <col customWidth="1" hidden="1" max="27" min="27" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="28" min="28" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="29" min="29" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="16" min="16" style="1" width="3"/>
     <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
@@ -698,20 +690,14 @@
       <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="AZ1" s="2" t="s"/>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
@@ -720,7 +706,7 @@
       <c r="F2" s="6" t="s"/>
       <c r="G2" s="6" t="s"/>
       <c r="H2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
@@ -729,13 +715,14 @@
       <c r="M2" s="6" t="s"/>
       <c r="N2" s="6" t="s"/>
       <c r="O2" s="6" t="s"/>
+      <c r="P2" s="6" t="s"/>
       <c r="AZ2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
@@ -751,13 +738,14 @@
       <c r="M3" s="9" t="s"/>
       <c r="N3" s="9" t="s"/>
       <c r="O3" s="9" t="s"/>
+      <c r="P3" s="9" t="s"/>
       <c r="AZ3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -790,10 +778,11 @@
         <f>N4*N4</f>
         <v/>
       </c>
+      <c r="P4" s="1" t="s"/>
     </row>
     <row hidden="1" r="5" spans="1:52">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="14" t="n">
         <v>0</v>
@@ -813,13 +802,14 @@
       <c r="K5" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>1</v>
+      <c r="P5" s="4">
+        <f>TRIM(A5)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
@@ -852,10 +842,11 @@
         <f>N6*N6</f>
         <v/>
       </c>
+      <c r="P6" s="1" t="s"/>
     </row>
     <row hidden="1" r="7" spans="1:52">
       <c r="A7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14" t="n">
         <v>0</v>
@@ -875,13 +866,14 @@
       <c r="K7" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AC7" s="4" t="n">
-        <v>1</v>
+      <c r="P7" s="4">
+        <f>TRIM(A7)</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
@@ -897,10 +889,11 @@
       <c r="M8" s="9" t="s"/>
       <c r="N8" s="9" t="s"/>
       <c r="O8" s="9" t="s"/>
+      <c r="P8" s="9" t="s"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
@@ -933,10 +926,11 @@
         <f>N9*N9</f>
         <v/>
       </c>
+      <c r="P9" s="1" t="s"/>
     </row>
     <row hidden="1" r="10" spans="1:52">
       <c r="A10" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="14" t="n">
         <v>0</v>
@@ -956,13 +950,14 @@
       <c r="K10" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AB10" s="4" t="n">
-        <v>1</v>
+      <c r="P10" s="4">
+        <f>TRIM(A10)</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
@@ -995,10 +990,11 @@
         <f>N11*N11</f>
         <v/>
       </c>
+      <c r="P11" s="1" t="s"/>
     </row>
     <row hidden="1" r="12" spans="1:52">
       <c r="A12" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>0</v>
@@ -1018,13 +1014,14 @@
       <c r="K12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="AB12" s="4" t="n">
-        <v>1</v>
+      <c r="P12" s="4">
+        <f>TRIM(A12)</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
@@ -1057,10 +1054,11 @@
         <f>N13*N13</f>
         <v/>
       </c>
+      <c r="P13" s="1" t="s"/>
     </row>
     <row hidden="1" r="14" spans="1:52">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>0</v>
@@ -1080,13 +1078,14 @@
       <c r="K14" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AB14" s="4" t="n">
-        <v>1</v>
+      <c r="P14" s="4">
+        <f>TRIM(A14)</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -1119,10 +1118,11 @@
         <f>N15*N15</f>
         <v/>
       </c>
+      <c r="P15" s="1" t="s"/>
     </row>
     <row hidden="1" r="16" spans="1:52">
       <c r="A16" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>0</v>
@@ -1142,13 +1142,14 @@
       <c r="K16" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB16" s="4" t="n">
-        <v>1</v>
+      <c r="P16" s="4">
+        <f>TRIM(A16)</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -1181,10 +1182,11 @@
         <f>N17*N17</f>
         <v/>
       </c>
+      <c r="P17" s="1" t="s"/>
     </row>
     <row hidden="1" r="18" spans="1:52">
       <c r="A18" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="14" t="n">
         <v>0</v>
@@ -1204,13 +1206,14 @@
       <c r="K18" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB18" s="4" t="n">
-        <v>1</v>
+      <c r="P18" s="4">
+        <f>TRIM(A18)</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -1243,10 +1246,11 @@
         <f>N19*N19</f>
         <v/>
       </c>
+      <c r="P19" s="1" t="s"/>
     </row>
     <row hidden="1" r="20" spans="1:52">
       <c r="A20" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="14" t="n">
         <v>0</v>
@@ -1266,13 +1270,14 @@
       <c r="K20" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AB20" s="4" t="n">
-        <v>1</v>
+      <c r="P20" s="4">
+        <f>TRIM(A20)</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
@@ -1281,7 +1286,7 @@
       <c r="F21" s="6" t="s"/>
       <c r="G21" s="6" t="s"/>
       <c r="H21" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21" s="6" t="s"/>
       <c r="J21" s="6" t="s"/>
@@ -1290,10 +1295,11 @@
       <c r="M21" s="6" t="s"/>
       <c r="N21" s="6" t="s"/>
       <c r="O21" s="6" t="s"/>
+      <c r="P21" s="6" t="s"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="10" t="s"/>
       <c r="C22" s="9" t="s"/>
@@ -1302,7 +1308,7 @@
       <c r="F22" s="9" t="s"/>
       <c r="G22" s="9" t="s"/>
       <c r="H22" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9" t="s"/>
       <c r="J22" s="9" t="s"/>
@@ -1311,10 +1317,11 @@
       <c r="M22" s="9" t="s"/>
       <c r="N22" s="9" t="s"/>
       <c r="O22" s="9" t="s"/>
+      <c r="P22" s="9" t="s"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
@@ -1347,10 +1354,11 @@
         <f>N23*N23</f>
         <v/>
       </c>
+      <c r="P23" s="1" t="s"/>
     </row>
     <row hidden="1" r="24" spans="1:52">
       <c r="A24" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="14" t="n">
         <v>0</v>
@@ -1370,13 +1378,14 @@
       <c r="K24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AB24" s="4" t="n">
-        <v>1</v>
+      <c r="P24" s="4">
+        <f>TRIM(A24)</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
@@ -1409,10 +1418,11 @@
         <f>N25*N25</f>
         <v/>
       </c>
+      <c r="P25" s="1" t="s"/>
     </row>
     <row hidden="1" r="26" spans="1:52">
       <c r="A26" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="14" t="n">
         <v>0</v>
@@ -1432,13 +1442,14 @@
       <c r="K26" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB26" s="4" t="n">
-        <v>1</v>
+      <c r="P26" s="4">
+        <f>TRIM(A26)</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -1471,10 +1482,11 @@
         <f>N27*N27</f>
         <v/>
       </c>
+      <c r="P27" s="1" t="s"/>
     </row>
     <row hidden="1" r="28" spans="1:52">
       <c r="A28" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" s="14" t="n">
         <v>0</v>
@@ -1494,13 +1506,14 @@
       <c r="K28" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="AB28" s="4" t="n">
-        <v>1</v>
+      <c r="P28" s="4">
+        <f>TRIM(A28)</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
@@ -1533,10 +1546,11 @@
         <f>N29*N29</f>
         <v/>
       </c>
+      <c r="P29" s="1" t="s"/>
     </row>
     <row hidden="1" r="30" spans="1:52">
       <c r="A30" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="14" t="n">
         <v>0</v>
@@ -1556,13 +1570,14 @@
       <c r="K30" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB30" s="4" t="n">
-        <v>1</v>
+      <c r="P30" s="4">
+        <f>TRIM(A30)</f>
+        <v/>
       </c>
     </row>
     <row hidden="1" r="31" spans="1:52">
       <c r="A31" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="14" t="n">
         <v>0</v>
@@ -1582,13 +1597,14 @@
       <c r="K31" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AC31" s="4" t="n">
-        <v>1</v>
+      <c r="P31" s="4">
+        <f>TRIM(A31)</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
@@ -1621,10 +1637,11 @@
         <f>N32*N32</f>
         <v/>
       </c>
+      <c r="P32" s="1" t="s"/>
     </row>
     <row hidden="1" r="33" spans="1:52">
       <c r="A33" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" s="14" t="n">
         <v>0</v>
@@ -1644,13 +1661,14 @@
       <c r="K33" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB33" s="4" t="n">
-        <v>1</v>
+      <c r="P33" s="4">
+        <f>TRIM(A33)</f>
+        <v/>
       </c>
     </row>
     <row hidden="1" r="34" spans="1:52">
       <c r="A34" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="14" t="n">
         <v>0</v>
@@ -1670,13 +1688,14 @@
       <c r="K34" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AC34" s="4" t="n">
-        <v>1</v>
+      <c r="P34" s="4">
+        <f>TRIM(A34)</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
@@ -1685,7 +1704,7 @@
       <c r="F35" s="6" t="s"/>
       <c r="G35" s="6" t="s"/>
       <c r="H35" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I35" s="6" t="s"/>
       <c r="J35" s="6" t="s"/>
@@ -1694,10 +1713,11 @@
       <c r="M35" s="6" t="s"/>
       <c r="N35" s="6" t="s"/>
       <c r="O35" s="6" t="s"/>
+      <c r="P35" s="6" t="s"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="10" t="s"/>
       <c r="C36" s="9" t="s"/>
@@ -1713,10 +1733,11 @@
       <c r="M36" s="9" t="s"/>
       <c r="N36" s="9" t="s"/>
       <c r="O36" s="9" t="s"/>
+      <c r="P36" s="9" t="s"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
@@ -1749,10 +1770,11 @@
         <f>N37*N37</f>
         <v/>
       </c>
+      <c r="P37" s="1" t="s"/>
     </row>
     <row hidden="1" r="38" spans="1:52">
       <c r="A38" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" s="14" t="n">
         <v>0</v>
@@ -1772,13 +1794,14 @@
       <c r="K38" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AC38" s="4" t="n">
-        <v>1</v>
+      <c r="P38" s="4">
+        <f>TRIM(A38)</f>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
@@ -1811,10 +1834,11 @@
         <f>N39*N39</f>
         <v/>
       </c>
+      <c r="P39" s="1" t="s"/>
     </row>
     <row hidden="1" r="40" spans="1:52">
       <c r="A40" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" s="14" t="n">
         <v>0</v>
@@ -1834,13 +1858,14 @@
       <c r="K40" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AC40" s="4" t="n">
-        <v>1</v>
+      <c r="P40" s="4">
+        <f>TRIM(A40)</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
@@ -1851,7 +1876,7 @@
       <c r="F41" s="1" t="s"/>
       <c r="G41" s="1" t="s"/>
       <c r="H41" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I41" s="12" t="n">
         <v>1</v>
@@ -1875,10 +1900,11 @@
         <f>N41*N41</f>
         <v/>
       </c>
+      <c r="P41" s="1" t="s"/>
     </row>
     <row hidden="1" r="42" spans="1:52">
       <c r="A42" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="14" t="n">
         <v>0</v>
@@ -1898,13 +1924,14 @@
       <c r="K42" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB42" s="4" t="n">
-        <v>1</v>
+      <c r="P42" s="4">
+        <f>TRIM(A42)</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
@@ -1937,10 +1964,11 @@
         <f>N43*N43</f>
         <v/>
       </c>
+      <c r="P43" s="1" t="s"/>
     </row>
     <row hidden="1" r="44" spans="1:52">
       <c r="A44" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="14" t="n">
         <v>0</v>
@@ -1960,13 +1988,14 @@
       <c r="K44" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AB44" s="4" t="n">
-        <v>1</v>
+      <c r="P44" s="4">
+        <f>TRIM(A44)</f>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
@@ -1999,10 +2028,11 @@
         <f>N45*N45</f>
         <v/>
       </c>
+      <c r="P45" s="1" t="s"/>
     </row>
     <row hidden="1" r="46" spans="1:52">
       <c r="A46" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="14" t="n">
         <v>0</v>
@@ -2022,13 +2052,14 @@
       <c r="K46" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AB46" s="4" t="n">
-        <v>1</v>
+      <c r="P46" s="4">
+        <f>TRIM(A46)</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
@@ -2061,10 +2092,11 @@
         <f>N47*N47</f>
         <v/>
       </c>
+      <c r="P47" s="1" t="s"/>
     </row>
     <row hidden="1" r="48" spans="1:52">
       <c r="A48" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="14" t="n">
         <v>0</v>
@@ -2084,13 +2116,14 @@
       <c r="K48" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="AA48" s="4" t="n">
-        <v>1</v>
+      <c r="P48" s="4">
+        <f>TRIM(A48)</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
@@ -2099,7 +2132,7 @@
       <c r="F49" s="6" t="s"/>
       <c r="G49" s="6" t="s"/>
       <c r="H49" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I49" s="6" t="s"/>
       <c r="J49" s="6" t="s"/>
@@ -2108,10 +2141,11 @@
       <c r="M49" s="6" t="s"/>
       <c r="N49" s="6" t="s"/>
       <c r="O49" s="6" t="s"/>
+      <c r="P49" s="6" t="s"/>
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
@@ -2144,10 +2178,11 @@
         <f>N50*N50</f>
         <v/>
       </c>
+      <c r="P50" s="1" t="s"/>
     </row>
     <row hidden="1" r="51" spans="1:52">
       <c r="A51" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" s="14" t="n">
         <v>0</v>
@@ -2167,13 +2202,14 @@
       <c r="K51" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AB51" s="4" t="n">
-        <v>1</v>
+      <c r="P51" s="4">
+        <f>TRIM(A51)</f>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
@@ -2206,10 +2242,11 @@
         <f>N52*N52</f>
         <v/>
       </c>
+      <c r="P52" s="1" t="s"/>
     </row>
     <row hidden="1" r="53" spans="1:52">
       <c r="A53" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B53" s="14" t="n">
         <v>0</v>
@@ -2229,13 +2266,14 @@
       <c r="K53" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="AC53" s="4" t="n">
-        <v>1</v>
+      <c r="P53" s="4">
+        <f>TRIM(A53)</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
@@ -2268,10 +2306,11 @@
         <f>N54*N54</f>
         <v/>
       </c>
+      <c r="P54" s="1" t="s"/>
     </row>
     <row hidden="1" r="55" spans="1:52">
       <c r="A55" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55" s="14" t="n">
         <v>0</v>
@@ -2291,13 +2330,14 @@
       <c r="K55" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="AB55" s="4" t="n">
-        <v>1</v>
+      <c r="P55" s="4">
+        <f>TRIM(A55)</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="16" t="s"/>
       <c r="C57" s="16" t="s"/>
@@ -2307,34 +2347,34 @@
       <c r="G57" s="16" t="s"/>
       <c r="H57" s="16" t="s"/>
       <c r="I57" s="17">
-        <f>SUMPRODUCT(I2:I56,B2:B56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="J57" s="17">
-        <f>SUMPRODUCT(J2:J56,B2:B56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="K57" s="17">
-        <f>SUMPRODUCT(K2:K56,B2:B56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="L57" s="16" t="s"/>
       <c r="M57" s="17">
-        <f>SUMPRODUCT(M2:M56,B2:B56)</f>
+        <f>SUMIFS(M2:M56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="N57" s="17">
-        <f>SUMPRODUCT(N2:N56,B2:B56)</f>
+        <f>SUMIFS(N2:N56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="O57" s="17">
-        <f>SUMPRODUCT(O2:O56,B2:B56)</f>
+        <f>SUMIFS(O2:O56,B2:B56,"=1")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58" s="16" t="s"/>
       <c r="C58" s="16" t="s"/>
@@ -2344,15 +2384,15 @@
       <c r="G58" s="16" t="s"/>
       <c r="H58" s="16" t="s"/>
       <c r="I58" s="17">
-        <f>SUMPRODUCT(I2:I56,AA2:AA56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J58" s="17">
-        <f>SUMPRODUCT(J2:J56,AA2:AA56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K58" s="17">
-        <f>SUMPRODUCT(K2:K56,AA2:AA56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M58" s="17">
@@ -2366,7 +2406,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" s="16" t="s"/>
       <c r="C59" s="16" t="s"/>
@@ -2376,15 +2416,15 @@
       <c r="G59" s="16" t="s"/>
       <c r="H59" s="16" t="s"/>
       <c r="I59" s="17">
-        <f>SUMPRODUCT(I2:I56,AB2:AB56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J59" s="17">
-        <f>SUMPRODUCT(J2:J56,AB2:AB56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K59" s="17">
-        <f>SUMPRODUCT(K2:K56,AB2:AB56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M59" s="17">
@@ -2398,7 +2438,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="16" t="s"/>
       <c r="C60" s="16" t="s"/>
@@ -2408,15 +2448,15 @@
       <c r="G60" s="16" t="s"/>
       <c r="H60" s="16" t="s"/>
       <c r="I60" s="17">
-        <f>SUMPRODUCT(I2:I56,AC2:AC56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="J60" s="17">
-        <f>SUMPRODUCT(J2:J56,AC2:AC56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="K60" s="17">
-        <f>SUMPRODUCT(K2:K56,AC2:AC56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="M60" s="17">
@@ -2430,7 +2470,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="12">
         <f>SQRT(O57)</f>
@@ -2439,7 +2479,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>1.5</v>
@@ -2447,7 +2487,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="16" t="s"/>
       <c r="C65" s="17">
@@ -2465,7 +2505,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" s="16" t="s"/>
       <c r="C66" s="17">

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -635,13 +635,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="40"/>
+    <col customWidth="1" max="1" min="1" style="1" width="50"/>
     <col customWidth="1" hidden="1" max="2" min="2" style="2" width="3"/>
     <col customWidth="1" max="3" min="3" style="1" width="8"/>
-    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
-    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="50"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="10"/>
     <col customWidth="1" max="8" min="8" style="3" width="50"/>
     <col customWidth="1" max="9" min="9" style="4" width="8"/>
     <col customWidth="1" max="10" min="10" style="4" width="8"/>
@@ -802,7 +802,7 @@
       <c r="K5" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="15">
         <f>TRIM(A5)</f>
         <v/>
       </c>
@@ -866,7 +866,7 @@
       <c r="K7" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="15">
         <f>TRIM(A7)</f>
         <v/>
       </c>
@@ -950,7 +950,7 @@
       <c r="K10" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="15">
         <f>TRIM(A10)</f>
         <v/>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="K12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="15">
         <f>TRIM(A12)</f>
         <v/>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="K14" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="15">
         <f>TRIM(A14)</f>
         <v/>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="K16" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="15">
         <f>TRIM(A16)</f>
         <v/>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="K18" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="15">
         <f>TRIM(A18)</f>
         <v/>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="K20" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="15">
         <f>TRIM(A20)</f>
         <v/>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="K24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="15">
         <f>TRIM(A24)</f>
         <v/>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="K26" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="15">
         <f>TRIM(A26)</f>
         <v/>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="K28" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="15">
         <f>TRIM(A28)</f>
         <v/>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="K30" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="15">
         <f>TRIM(A30)</f>
         <v/>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="K31" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="15">
         <f>TRIM(A31)</f>
         <v/>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="K33" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="15">
         <f>TRIM(A33)</f>
         <v/>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="K34" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="15">
         <f>TRIM(A34)</f>
         <v/>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="K38" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="15">
         <f>TRIM(A38)</f>
         <v/>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="K40" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="15">
         <f>TRIM(A40)</f>
         <v/>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="K42" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="15">
         <f>TRIM(A42)</f>
         <v/>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="K44" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="15">
         <f>TRIM(A44)</f>
         <v/>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="K46" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="15">
         <f>TRIM(A46)</f>
         <v/>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="K48" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="15">
         <f>TRIM(A48)</f>
         <v/>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="K51" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="15">
         <f>TRIM(A51)</f>
         <v/>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="K53" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="15">
         <f>TRIM(A53)</f>
         <v/>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="K55" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="15">
         <f>TRIM(A55)</f>
         <v/>
       </c>
@@ -2474,6 +2474,10 @@
       </c>
       <c r="C62" s="12">
         <f>SQRT(O57)</f>
+        <v/>
+      </c>
+      <c r="H62" s="18">
+        <f>C62/M57</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>Min (P=95%)</t>
   </si>
   <si>
     <t>Max (P=95%)</t>
@@ -268,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -321,10 +318,13 @@
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2347,28 +2347,28 @@
       <c r="G57" s="16" t="s"/>
       <c r="H57" s="16" t="s"/>
       <c r="I57" s="17">
-        <f>SUMIFS(I2:I56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="J57" s="17">
-        <f>SUMIFS(J2:J56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="K57" s="17">
-        <f>SUMIFS(K2:K56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="L57" s="16" t="s"/>
       <c r="M57" s="17">
-        <f>SUMIFS(M2:M56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!M2:M56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="N57" s="17">
-        <f>SUMIFS(N2:N56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!N2:N56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="O57" s="17">
-        <f>SUMIFS(O2:O56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!O2:O56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
     </row>
@@ -2384,15 +2384,15 @@
       <c r="G58" s="16" t="s"/>
       <c r="H58" s="16" t="s"/>
       <c r="I58" s="17">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J58" s="17">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K58" s="17">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M58" s="17">
@@ -2400,7 +2400,7 @@
         <v/>
       </c>
       <c r="N58" s="18">
-        <f>(M58/M57)</f>
+        <f>(M58/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2416,15 +2416,15 @@
       <c r="G59" s="16" t="s"/>
       <c r="H59" s="16" t="s"/>
       <c r="I59" s="17">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J59" s="17">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K59" s="17">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M59" s="17">
@@ -2432,7 +2432,7 @@
         <v/>
       </c>
       <c r="N59" s="18">
-        <f>(M59/M57)</f>
+        <f>(M59/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2448,15 +2448,15 @@
       <c r="G60" s="16" t="s"/>
       <c r="H60" s="16" t="s"/>
       <c r="I60" s="17">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="J60" s="17">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="K60" s="17">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="M60" s="17">
@@ -2464,7 +2464,7 @@
         <v/>
       </c>
       <c r="N60" s="18">
-        <f>(M60/M57)</f>
+        <f>(M60/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <f>SQRT(O57)</f>
         <v/>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="20">
         <f>C62/M57</f>
         <v/>
       </c>
@@ -2491,25 +2491,25 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="16" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B65" s="16" t="s"/>
       <c r="C65" s="17">
-        <f>M57-2*C62</f>
+        <f>M57-1*C62</f>
         <v/>
       </c>
       <c r="D65" s="16" t="s"/>
       <c r="E65" s="16" t="s"/>
       <c r="F65" s="16" t="s"/>
       <c r="G65" s="16" t="s"/>
-      <c r="H65" s="20">
-        <f>C65*C63</f>
+      <c r="H65" s="21">
+        <f>C65*Estimates!C63</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="16" t="s"/>
       <c r="C66" s="17">
@@ -2520,8 +2520,8 @@
       <c r="E66" s="16" t="s"/>
       <c r="F66" s="16" t="s"/>
       <c r="G66" s="16" t="s"/>
-      <c r="H66" s="20">
-        <f>C66*C63</f>
+      <c r="H66" s="21">
+        <f>C66*Estimates!C63</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.sort.xlsx
+++ b/example/Estimation Tool.mm.sort.xlsx
@@ -627,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ66"/>
+  <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,41 +2372,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:52">
-      <c r="A58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="16" t="s"/>
-      <c r="C58" s="16" t="s"/>
-      <c r="D58" s="16" t="s"/>
-      <c r="E58" s="16" t="s"/>
-      <c r="F58" s="16" t="s"/>
-      <c r="G58" s="16" t="s"/>
-      <c r="H58" s="16" t="s"/>
-      <c r="I58" s="17">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="J58" s="17">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="K58" s="17">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="M58" s="17">
-        <f>(I58+4*J58+K58)/6</f>
-        <v/>
-      </c>
-      <c r="N58" s="18">
-        <f>(M58/Estimates!M57)</f>
-        <v/>
-      </c>
-    </row>
     <row r="59" spans="1:52">
       <c r="A59" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="16" t="s"/>
       <c r="C59" s="16" t="s"/>
@@ -2416,15 +2384,15 @@
       <c r="G59" s="16" t="s"/>
       <c r="H59" s="16" t="s"/>
       <c r="I59" s="17">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J59" s="17">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K59" s="17">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M59" s="17">
@@ -2435,10 +2403,14 @@
         <f>(M59/Estimates!M57)</f>
         <v/>
       </c>
+      <c r="P59" s="2">
+        <f>IF(N59&gt;0, 1, 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="16" t="s"/>
       <c r="C60" s="16" t="s"/>
@@ -2448,15 +2420,15 @@
       <c r="G60" s="16" t="s"/>
       <c r="H60" s="16" t="s"/>
       <c r="I60" s="17">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J60" s="17">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K60" s="17">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M60" s="17">
@@ -2467,53 +2439,75 @@
         <f>(M60/Estimates!M57)</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:52">
-      <c r="A62" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="12">
-        <f>SQRT(O57)</f>
-        <v/>
-      </c>
-      <c r="H62" s="20">
-        <f>C62/M57</f>
+      <c r="P60" s="2">
+        <f>IF(N60&gt;0, 1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="16" t="s"/>
+      <c r="C61" s="16" t="s"/>
+      <c r="D61" s="16" t="s"/>
+      <c r="E61" s="16" t="s"/>
+      <c r="F61" s="16" t="s"/>
+      <c r="G61" s="16" t="s"/>
+      <c r="H61" s="16" t="s"/>
+      <c r="I61" s="17">
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="J61" s="17">
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="K61" s="17">
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="M61" s="17">
+        <f>(I61+4*J61+K61)/6</f>
+        <v/>
+      </c>
+      <c r="N61" s="18">
+        <f>(M61/Estimates!M57)</f>
+        <v/>
+      </c>
+      <c r="P61" s="2">
+        <f>IF(N61&gt;0, 1, 0)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="12">
+        <f>SQRT(O57)</f>
+        <v/>
+      </c>
+      <c r="H63" s="20">
+        <f>C63/M57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="12" t="n">
+      <c r="C64" s="12" t="n">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:52">
-      <c r="A65" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="16" t="s"/>
-      <c r="C65" s="17">
-        <f>M57-1*C62</f>
-        <v/>
-      </c>
-      <c r="D65" s="16" t="s"/>
-      <c r="E65" s="16" t="s"/>
-      <c r="F65" s="16" t="s"/>
-      <c r="G65" s="16" t="s"/>
-      <c r="H65" s="21">
-        <f>C65*Estimates!C63</f>
-        <v/>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="16" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B66" s="16" t="s"/>
       <c r="C66" s="17">
-        <f>M57+2*C62</f>
+        <f>M57-1*C63</f>
         <v/>
       </c>
       <c r="D66" s="16" t="s"/>
@@ -2521,7 +2515,25 @@
       <c r="F66" s="16" t="s"/>
       <c r="G66" s="16" t="s"/>
       <c r="H66" s="21">
-        <f>C66*Estimates!C63</f>
+        <f>C66*Estimates!C64</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
+      <c r="A67" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="16" t="s"/>
+      <c r="C67" s="17">
+        <f>M57+2*C63</f>
+        <v/>
+      </c>
+      <c r="D67" s="16" t="s"/>
+      <c r="E67" s="16" t="s"/>
+      <c r="F67" s="16" t="s"/>
+      <c r="G67" s="16" t="s"/>
+      <c r="H67" s="21">
+        <f>C67*Estimates!C64</f>
         <v/>
       </c>
     </row>
